--- a/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/fullResourceAllocation.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/fullResourceAllocation.xlsx
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -279,11 +279,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -323,37 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,6 +396,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +517,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-              <a:t> for EachSub-Image of  The Images</a:t>
+              <a:t> for Each Sub-Image of  The Images</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600"/>
           </a:p>
@@ -1187,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1761537824"/>
-        <c:axId val="1761536192"/>
+        <c:axId val="-1674799568"/>
+        <c:axId val="-1674801200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1761537824"/>
+        <c:axId val="-1674799568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761536192"/>
+        <c:crossAx val="-1674801200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1335,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761536192"/>
+        <c:axId val="-1674801200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -1468,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761537824"/>
+        <c:crossAx val="-1674799568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -2002,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1972386288"/>
-        <c:axId val="1972387376"/>
+        <c:axId val="-1674801744"/>
+        <c:axId val="-1674802832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1972386288"/>
+        <c:axId val="-1674801744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972387376"/>
+        <c:crossAx val="-1674802832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972387376"/>
+        <c:axId val="-1674802832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2252,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972386288"/>
+        <c:crossAx val="-1674801744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -2744,11 +2839,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1930437920"/>
-        <c:axId val="1930437376"/>
+        <c:axId val="-1674802288"/>
+        <c:axId val="-1674800112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930437920"/>
+        <c:axId val="-1674802288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +2949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930437376"/>
+        <c:crossAx val="-1674800112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930437376"/>
+        <c:axId val="-1674800112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -2994,7 +3089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930437920"/>
+        <c:crossAx val="-1674802288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -3486,11 +3581,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1930441184"/>
-        <c:axId val="1930436288"/>
+        <c:axId val="-1671507024"/>
+        <c:axId val="-1671505936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930441184"/>
+        <c:axId val="-1671507024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930436288"/>
+        <c:crossAx val="-1671505936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3604,7 +3699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930436288"/>
+        <c:axId val="-1671505936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3736,7 +3831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930441184"/>
+        <c:crossAx val="-1671507024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -3894,7 +3989,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AN$100:$AN$108</c:f>
+              <c:f>Sheet1!$AK$95:$AK$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3930,7 +4025,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$100:$AO$108</c:f>
+              <c:f>Sheet1!$AL$95:$AL$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4000,7 +4095,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AV$100:$AV$108</c:f>
+              <c:f>Sheet1!$AS$95:$AS$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4053,7 +4148,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AW$100:$AW$108</c:f>
+              <c:f>Sheet1!$AT$95:$AT$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4125,7 +4220,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AX$100:$AX$108</c:f>
+              <c:f>Sheet1!$AU$95:$AU$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4176,7 +4271,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AY$100:$AY$108</c:f>
+              <c:f>Sheet1!$AV$95:$AV$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4221,30 +4316,16 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1765295264"/>
-        <c:axId val="1765294720"/>
+        <c:axId val="-1671515184"/>
+        <c:axId val="-1671512464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1765295264"/>
+        <c:axId val="-1671515184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4309,7 +4390,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4342,7 +4423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765294720"/>
+        <c:crossAx val="-1671512464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4350,7 +4431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765294720"/>
+        <c:axId val="-1671512464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -4481,7 +4562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765295264"/>
+        <c:crossAx val="-1671515184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -4639,7 +4720,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AN$100:$AN$108</c:f>
+              <c:f>Sheet1!$AK$95:$AK$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4675,7 +4756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$117:$AO$125</c:f>
+              <c:f>Sheet1!$AL$109:$AL$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4745,7 +4826,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AV$117:$AV$125</c:f>
+              <c:f>Sheet1!$AS$109:$AS$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4798,7 +4879,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AW$117:$AW$125</c:f>
+              <c:f>Sheet1!$AT$109:$AT$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4870,7 +4951,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AX$117:$AX$125</c:f>
+              <c:f>Sheet1!$AU$109:$AU$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4921,7 +5002,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AY$117:$AY$125</c:f>
+              <c:f>Sheet1!$AV$109:$AV$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4966,30 +5047,16 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1972382480"/>
-        <c:axId val="1972383568"/>
+        <c:axId val="-1671505392"/>
+        <c:axId val="-1671509744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1972382480"/>
+        <c:axId val="-1671505392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5054,7 +5121,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5087,7 +5154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972383568"/>
+        <c:crossAx val="-1671509744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5095,7 +5162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972383568"/>
+        <c:axId val="-1671509744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -5226,7 +5293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972382480"/>
+        <c:crossAx val="-1671505392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -5315,7 +5382,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-              <a:t> for EachSub-Image of  The Images</a:t>
+              <a:t> for Each Sub-Image of  The Images</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ" sz="1600"/>
           </a:p>
@@ -6080,11 +6147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1790632368"/>
-        <c:axId val="1790619312"/>
+        <c:axId val="-1674800656"/>
+        <c:axId val="-1674792496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1790632368"/>
+        <c:axId val="-1674800656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,7 +6287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790619312"/>
+        <c:crossAx val="-1674792496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6228,7 +6295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1790619312"/>
+        <c:axId val="-1674792496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -6361,7 +6428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790632368"/>
+        <c:crossAx val="-1674800656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6895,11 +6962,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1765293632"/>
-        <c:axId val="1765291456"/>
+        <c:axId val="-1674794672"/>
+        <c:axId val="-1674793584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1765293632"/>
+        <c:axId val="-1674794672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,7 +7072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765291456"/>
+        <c:crossAx val="-1674793584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7013,7 +7080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765291456"/>
+        <c:axId val="-1674793584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7144,7 +7211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765293632"/>
+        <c:crossAx val="-1674794672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7635,11 +7702,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1939367280"/>
-        <c:axId val="1939373264"/>
+        <c:axId val="-1674791952"/>
+        <c:axId val="-1674799024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1939367280"/>
+        <c:axId val="-1674791952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7745,7 +7812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939373264"/>
+        <c:crossAx val="-1674799024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7753,7 +7820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1939373264"/>
+        <c:axId val="-1674799024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7884,7 +7951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939367280"/>
+        <c:crossAx val="-1674791952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8375,11 +8442,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1939366192"/>
-        <c:axId val="1939370000"/>
+        <c:axId val="-1674798480"/>
+        <c:axId val="-1674795760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1939366192"/>
+        <c:axId val="-1674798480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8485,7 +8552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939370000"/>
+        <c:crossAx val="-1674795760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8493,7 +8560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1939370000"/>
+        <c:axId val="-1674795760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -8624,7 +8691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939366192"/>
+        <c:crossAx val="-1674798480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9115,11 +9182,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1930441728"/>
-        <c:axId val="1930435200"/>
+        <c:axId val="-1674791408"/>
+        <c:axId val="-1674805552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930441728"/>
+        <c:axId val="-1674791408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9225,7 +9292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930435200"/>
+        <c:crossAx val="-1674805552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9233,7 +9300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930435200"/>
+        <c:axId val="-1674805552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -9364,7 +9431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930441728"/>
+        <c:crossAx val="-1674791408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9855,11 +9922,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1765297440"/>
-        <c:axId val="1765290912"/>
+        <c:axId val="-1674790864"/>
+        <c:axId val="-1674795216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1765297440"/>
+        <c:axId val="-1674790864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9965,7 +10032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765290912"/>
+        <c:crossAx val="-1674795216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9973,7 +10040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765290912"/>
+        <c:axId val="-1674795216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -10104,7 +10171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765297440"/>
+        <c:crossAx val="-1674790864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10595,11 +10662,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1930439552"/>
-        <c:axId val="1930440096"/>
+        <c:axId val="-1674805008"/>
+        <c:axId val="-1674804464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930439552"/>
+        <c:axId val="-1674805008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10705,7 +10772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930440096"/>
+        <c:crossAx val="-1674804464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10713,7 +10780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930440096"/>
+        <c:axId val="-1674804464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -10845,7 +10912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930439552"/>
+        <c:crossAx val="-1674805008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -11337,11 +11404,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1802187184"/>
-        <c:axId val="1802167056"/>
+        <c:axId val="-1674803920"/>
+        <c:axId val="-1674803376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1802187184"/>
+        <c:axId val="-1674803920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11447,7 +11514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802167056"/>
+        <c:crossAx val="-1674803376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11455,7 +11522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1802167056"/>
+        <c:axId val="-1674803376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -11586,7 +11653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802187184"/>
+        <c:crossAx val="-1674803920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -19998,8 +20065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="BF228" sqref="BF228"/>
+    <sheetView tabSelected="1" topLeftCell="BD28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BV67" sqref="BV67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20017,78 +20084,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AD1" s="21" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AD1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AJ1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
     </row>
     <row r="2" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -20178,55 +20245,55 @@
       <c r="AH2" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="22" t="s">
+      <c r="AY2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
-      <c r="BF2" s="22" t="s">
+      <c r="BF2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="22"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
       <c r="BK2" s="8"/>
       <c r="BL2" s="8"/>
-      <c r="BM2" s="22" t="s">
+      <c r="BM2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -20515,35 +20582,35 @@
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
       <c r="AJ5" s="11">
         <v>2</v>
       </c>
@@ -20739,7 +20806,7 @@
       <c r="AH6" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="26" t="s">
+      <c r="AI6" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ6" s="13">
@@ -21300,35 +21367,35 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
       <c r="AJ10" s="13">
         <v>12</v>
       </c>
@@ -21529,7 +21596,7 @@
       <c r="AH11" t="s">
         <v>10</v>
       </c>
-      <c r="AI11" s="26" t="s">
+      <c r="AI11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ11" s="11">
@@ -21934,70 +22001,70 @@
       </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="23" t="s">
+      <c r="AK15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
-      <c r="AR15" s="23" t="s">
+      <c r="AR15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
-      <c r="AY15" s="20" t="s">
+      <c r="AY15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
-      <c r="BF15" s="23" t="s">
+      <c r="BF15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BG15" s="23"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+      <c r="BJ15" s="27"/>
     </row>
     <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -22090,36 +22157,36 @@
       <c r="AH16" t="s">
         <v>10</v>
       </c>
-      <c r="AI16" s="26" t="s">
+      <c r="AI16" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ16" s="12"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -22569,24 +22636,24 @@
       </c>
     </row>
     <row r="20" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
       <c r="AJ20" s="11">
         <v>6</v>
       </c>
@@ -22678,35 +22745,35 @@
       </c>
     </row>
     <row r="21" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
       <c r="AJ21" s="13">
         <v>8</v>
       </c>
@@ -22885,7 +22952,7 @@
       <c r="AH22" t="s">
         <v>10</v>
       </c>
-      <c r="AI22" s="26" t="s">
+      <c r="AI22" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ22" s="11">
@@ -23605,35 +23672,35 @@
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -23723,7 +23790,7 @@
       <c r="AH29" t="s">
         <v>10</v>
       </c>
-      <c r="AI29" s="26" t="s">
+      <c r="AI29" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -23818,23 +23885,23 @@
       <c r="AP30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AQ30" s="20" t="s">
+      <c r="AQ30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="20"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
       <c r="BC30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BD30" s="20" t="s">
+      <c r="BD30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="20"/>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="22"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -23922,7 +23989,7 @@
         <v>8</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI30:AI33" si="77">AVERAGE(AD31:AH31)</f>
+        <f t="shared" ref="AI31:AI33" si="77">AVERAGE(AD31:AH31)</f>
         <v>3.8</v>
       </c>
       <c r="AP31" s="8"/>
@@ -24279,24 +24346,24 @@
       </c>
     </row>
     <row r="35" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
       <c r="AP35" s="11">
         <v>6</v>
       </c>
@@ -24345,35 +24412,35 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
       <c r="AP36" s="13">
         <v>8</v>
       </c>
@@ -24509,7 +24576,7 @@
       <c r="AH37" t="s">
         <v>10</v>
       </c>
-      <c r="AI37" s="26" t="s">
+      <c r="AI37" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AP37" s="11">
@@ -25237,35 +25304,35 @@
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -25355,7 +25422,7 @@
       <c r="AH46" t="s">
         <v>10</v>
       </c>
-      <c r="AI46" s="26" t="s">
+      <c r="AI46" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -25756,49 +25823,49 @@
       <c r="AJ50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK50" s="22" t="s">
+      <c r="AK50" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
       <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
-      <c r="AR50" s="22" t="s">
+      <c r="AR50" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AS50" s="22"/>
-      <c r="AT50" s="22"/>
-      <c r="AU50" s="22"/>
-      <c r="AV50" s="22"/>
+      <c r="AS50" s="25"/>
+      <c r="AT50" s="25"/>
+      <c r="AU50" s="25"/>
+      <c r="AV50" s="25"/>
       <c r="AW50" s="8"/>
       <c r="AX50" s="8"/>
-      <c r="AY50" s="22" t="s">
+      <c r="AY50" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AZ50" s="22"/>
-      <c r="BA50" s="22"/>
-      <c r="BB50" s="22"/>
-      <c r="BC50" s="22"/>
+      <c r="AZ50" s="25"/>
+      <c r="BA50" s="25"/>
+      <c r="BB50" s="25"/>
+      <c r="BC50" s="25"/>
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
-      <c r="BF50" s="22" t="s">
+      <c r="BF50" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BG50" s="22"/>
-      <c r="BH50" s="22"/>
-      <c r="BI50" s="22"/>
-      <c r="BJ50" s="22"/>
+      <c r="BG50" s="25"/>
+      <c r="BH50" s="25"/>
+      <c r="BI50" s="25"/>
+      <c r="BJ50" s="25"/>
       <c r="BK50" s="8"/>
       <c r="BL50" s="8"/>
-      <c r="BM50" s="22" t="s">
+      <c r="BM50" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="BN50" s="22"/>
-      <c r="BO50" s="22"/>
-      <c r="BP50" s="22"/>
-      <c r="BQ50" s="22"/>
+      <c r="BN50" s="25"/>
+      <c r="BO50" s="25"/>
+      <c r="BP50" s="25"/>
+      <c r="BQ50" s="25"/>
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -26289,24 +26356,24 @@
       </c>
     </row>
     <row r="54" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
       <c r="AJ54" s="13">
         <v>4</v>
       </c>
@@ -26420,35 +26487,35 @@
       </c>
     </row>
     <row r="55" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
       <c r="AJ55" s="11">
         <v>6</v>
       </c>
@@ -26649,7 +26716,7 @@
       <c r="AH56" t="s">
         <v>10</v>
       </c>
-      <c r="AI56" s="26" t="s">
+      <c r="AI56" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ56" s="13">
@@ -27837,22 +27904,22 @@
         <v>90.6</v>
       </c>
       <c r="AJ63" s="8"/>
-      <c r="AK63" s="25" t="s">
+      <c r="AK63" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AL63" s="25"/>
-      <c r="AM63" s="25"/>
-      <c r="AN63" s="25"/>
-      <c r="AO63" s="25"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="23"/>
       <c r="AP63" s="8"/>
       <c r="AQ63" s="8"/>
-      <c r="AR63" s="25" t="s">
+      <c r="AR63" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AS63" s="25"/>
-      <c r="AT63" s="25"/>
-      <c r="AU63" s="25"/>
-      <c r="AV63" s="25"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="23"/>
       <c r="AW63" s="8"/>
       <c r="AX63" s="8"/>
       <c r="AY63" s="24" t="s">
@@ -27864,13 +27931,13 @@
       <c r="BC63" s="24"/>
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
-      <c r="BF63" s="25" t="s">
+      <c r="BF63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BG63" s="25"/>
-      <c r="BH63" s="25"/>
-      <c r="BI63" s="25"/>
-      <c r="BJ63" s="25"/>
+      <c r="BG63" s="23"/>
+      <c r="BH63" s="23"/>
+      <c r="BI63" s="23"/>
+      <c r="BJ63" s="23"/>
     </row>
     <row r="64" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -27962,18 +28029,18 @@
         <v>91</v>
       </c>
       <c r="AJ64" s="12"/>
-      <c r="AK64" s="25"/>
-      <c r="AL64" s="25"/>
-      <c r="AM64" s="25"/>
-      <c r="AN64" s="25"/>
-      <c r="AO64" s="25"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="23"/>
       <c r="AP64" s="12"/>
       <c r="AQ64" s="12"/>
-      <c r="AR64" s="25"/>
-      <c r="AS64" s="25"/>
-      <c r="AT64" s="25"/>
-      <c r="AU64" s="25"/>
-      <c r="AV64" s="25"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="23"/>
+      <c r="AV64" s="23"/>
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
       <c r="AY64" s="24"/>
@@ -27983,11 +28050,11 @@
       <c r="BC64" s="24"/>
       <c r="BD64" s="12"/>
       <c r="BE64" s="12"/>
-      <c r="BF64" s="25"/>
-      <c r="BG64" s="25"/>
-      <c r="BH64" s="25"/>
-      <c r="BI64" s="25"/>
-      <c r="BJ64" s="25"/>
+      <c r="BF64" s="23"/>
+      <c r="BG64" s="23"/>
+      <c r="BH64" s="23"/>
+      <c r="BI64" s="23"/>
+      <c r="BJ64" s="23"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
@@ -28088,35 +28155,35 @@
       </c>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
       <c r="AJ66" s="11">
         <v>2</v>
       </c>
@@ -28295,7 +28362,7 @@
       <c r="AH67" t="s">
         <v>10</v>
       </c>
-      <c r="AI67" s="26" t="s">
+      <c r="AI67" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AJ67" s="13">
@@ -29642,55 +29709,55 @@
       </c>
     </row>
     <row r="77" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
     </row>
     <row r="78" spans="1:62" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="17"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
       <c r="AP78" s="15" t="s">
         <v>43</v>
       </c>
@@ -29800,7 +29867,7 @@
       <c r="AH79" t="s">
         <v>10</v>
       </c>
-      <c r="AI79" s="26" t="s">
+      <c r="AI79" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AP79" s="8"/>
@@ -31150,35 +31217,35 @@
       </c>
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
-      <c r="AA91" s="18"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -31268,9 +31335,23 @@
       <c r="AH92" t="s">
         <v>10</v>
       </c>
-      <c r="AI92" s="26" t="s">
+      <c r="AI92" s="17" t="s">
         <v>48</v>
       </c>
+      <c r="AK92" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL92" s="32"/>
+      <c r="AM92" s="32"/>
+      <c r="AN92" s="32"/>
+      <c r="AO92" s="32"/>
+      <c r="AP92" s="32"/>
+      <c r="AQ92" s="32"/>
+      <c r="AR92" s="32"/>
+      <c r="AS92" s="32"/>
+      <c r="AT92" s="32"/>
+      <c r="AU92" s="32"/>
+      <c r="AV92" s="33"/>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -31360,8 +31441,20 @@
         <f t="shared" ref="AI93:AI102" si="185">AVERAGE(AD93:AH93)</f>
         <v>47.2</v>
       </c>
+      <c r="AK93" s="34"/>
+      <c r="AL93" s="35"/>
+      <c r="AM93" s="35"/>
+      <c r="AN93" s="35"/>
+      <c r="AO93" s="35"/>
+      <c r="AP93" s="35"/>
+      <c r="AQ93" s="35"/>
+      <c r="AR93" s="35"/>
+      <c r="AS93" s="35"/>
+      <c r="AT93" s="35"/>
+      <c r="AU93" s="35"/>
+      <c r="AV93" s="36"/>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>A93+1</f>
         <v>2</v>
@@ -31448,6 +31541,38 @@
       </c>
       <c r="AI94">
         <f t="shared" si="185"/>
+        <v>59</v>
+      </c>
+      <c r="AK94" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL94" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM94" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN94" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO94" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP94" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ94" s="16"/>
+      <c r="AR94" s="16"/>
+      <c r="AS94" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT94" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU94" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV94" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -31540,6 +31665,47 @@
         <f t="shared" si="185"/>
         <v>56</v>
       </c>
+      <c r="AK95" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL95" s="13">
+        <f xml:space="preserve"> MIN(AI3)</f>
+        <v>0</v>
+      </c>
+      <c r="AM95" s="13">
+        <f>_xlfn.QUARTILE.INC($AI3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN95" s="13">
+        <f>_xlfn.QUARTILE.INC($AI3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO95" s="13">
+        <f>_xlfn.QUARTILE.INC($AI3,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP95" s="13">
+        <f>MAX($AI3)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="13"/>
+      <c r="AR95" s="13"/>
+      <c r="AS95" s="13">
+        <f xml:space="preserve"> AM95 - AL95</f>
+        <v>0</v>
+      </c>
+      <c r="AT95" s="13">
+        <f xml:space="preserve"> AN95 - AM95</f>
+        <v>0</v>
+      </c>
+      <c r="AU95" s="13">
+        <f xml:space="preserve"> AO95 - AN95</f>
+        <v>0</v>
+      </c>
+      <c r="AV95" s="13">
+        <f xml:space="preserve"> AP95 - AO95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -31630,8 +31796,49 @@
         <f t="shared" si="185"/>
         <v>59.6</v>
       </c>
+      <c r="AK96" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL96" s="11">
+        <f>MIN(AI12:AI13)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AM96" s="11">
+        <f>_xlfn.QUARTILE.INC($AI12:$AI13,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN96" s="11">
+        <f>_xlfn.QUARTILE.INC($AI12:$AI13,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AO96" s="11">
+        <f>_xlfn.QUARTILE.INC($AI12:$AI13,3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AP96" s="11">
+        <f>MAX($AI12:$AI13)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AQ96" s="11"/>
+      <c r="AR96" s="11"/>
+      <c r="AS96" s="18">
+        <f t="shared" ref="AS96:AS103" si="188" xml:space="preserve"> AM96 - AL96</f>
+        <v>0</v>
+      </c>
+      <c r="AT96" s="18">
+        <f t="shared" ref="AT96:AT103" si="189" xml:space="preserve"> AN96 - AM96</f>
+        <v>0</v>
+      </c>
+      <c r="AU96" s="18">
+        <f t="shared" ref="AU96:AU103" si="190" xml:space="preserve"> AO96 - AN96</f>
+        <v>0</v>
+      </c>
+      <c r="AV96" s="18">
+        <f t="shared" ref="AV96:AV103" si="191" xml:space="preserve"> AP96 - AO96</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="187"/>
         <v>5</v>
@@ -31720,22 +31927,49 @@
         <f t="shared" si="185"/>
         <v>59.2</v>
       </c>
-      <c r="AN97" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO97" s="20"/>
-      <c r="AP97" s="20"/>
-      <c r="AQ97" s="20"/>
-      <c r="AR97" s="20"/>
-      <c r="AS97" s="20"/>
-      <c r="AT97" s="20"/>
-      <c r="AU97" s="20"/>
-      <c r="AV97" s="20"/>
-      <c r="AW97" s="20"/>
-      <c r="AX97" s="20"/>
-      <c r="AY97" s="20"/>
+      <c r="AK97" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL97" s="13">
+        <f>MIN(AI23:AI26)</f>
+        <v>22.4</v>
+      </c>
+      <c r="AM97" s="13">
+        <f>_xlfn.QUARTILE.INC($AI23:$AI26,1)</f>
+        <v>23.3</v>
+      </c>
+      <c r="AN97" s="13">
+        <f>_xlfn.QUARTILE.INC($AI23:$AI26,2)</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="AO97" s="13">
+        <f>_xlfn.QUARTILE.INC($AI23:$AI26,3)</f>
+        <v>24.95</v>
+      </c>
+      <c r="AP97" s="13">
+        <f>MAX($AI23:$AI26)</f>
+        <v>25.4</v>
+      </c>
+      <c r="AQ97" s="13"/>
+      <c r="AR97" s="13"/>
+      <c r="AS97" s="13">
+        <f t="shared" si="188"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="AT97" s="13">
+        <f t="shared" si="189"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="AU97" s="13">
+        <f t="shared" si="190"/>
+        <v>0.74999999999999645</v>
+      </c>
+      <c r="AV97" s="13">
+        <f t="shared" si="191"/>
+        <v>0.44999999999999929</v>
+      </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" si="187"/>
         <v>6</v>
@@ -31824,20 +32058,49 @@
         <f t="shared" si="185"/>
         <v>60.6</v>
       </c>
-      <c r="AN98" s="20"/>
-      <c r="AO98" s="20"/>
-      <c r="AP98" s="20"/>
-      <c r="AQ98" s="20"/>
-      <c r="AR98" s="20"/>
-      <c r="AS98" s="20"/>
-      <c r="AT98" s="20"/>
-      <c r="AU98" s="20"/>
-      <c r="AV98" s="20"/>
-      <c r="AW98" s="20"/>
-      <c r="AX98" s="20"/>
-      <c r="AY98" s="20"/>
+      <c r="AK98" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL98" s="11">
+        <f>MIN(AI38:AI43)</f>
+        <v>27.4</v>
+      </c>
+      <c r="AM98" s="11">
+        <f>_xlfn.QUARTILE.INC($AI38:$AI43,1)</f>
+        <v>40.9</v>
+      </c>
+      <c r="AN98" s="11">
+        <f>_xlfn.QUARTILE.INC($AI38:$AI43,2)</f>
+        <v>44</v>
+      </c>
+      <c r="AO98" s="11">
+        <f>_xlfn.QUARTILE.INC($AI38:$AI43,3)</f>
+        <v>44.4</v>
+      </c>
+      <c r="AP98" s="11">
+        <f>MAX($AI38:$AI43)</f>
+        <v>61</v>
+      </c>
+      <c r="AQ98" s="11"/>
+      <c r="AR98" s="11"/>
+      <c r="AS98" s="18">
+        <f t="shared" si="188"/>
+        <v>13.5</v>
+      </c>
+      <c r="AT98" s="18">
+        <f t="shared" si="189"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="AU98" s="18">
+        <f t="shared" si="190"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="AV98" s="18">
+        <f t="shared" si="191"/>
+        <v>16.600000000000001</v>
+      </c>
     </row>
-    <row r="99" spans="1:51" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="187"/>
         <v>7</v>
@@ -31926,40 +32189,49 @@
         <f t="shared" si="185"/>
         <v>60.2</v>
       </c>
-      <c r="AN99" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO99" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP99" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ99" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR99" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS99" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT99" s="16"/>
-      <c r="AU99" s="16"/>
-      <c r="AV99" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX99" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY99" s="16" t="s">
-        <v>59</v>
+      <c r="AK99" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL99" s="13">
+        <f>MIN(AI57:AI64)</f>
+        <v>90.4</v>
+      </c>
+      <c r="AM99" s="13">
+        <f>_xlfn.QUARTILE.INC($AI57:$AI64,1)</f>
+        <v>90.55</v>
+      </c>
+      <c r="AN99" s="13">
+        <f>_xlfn.QUARTILE.INC($AI57:$AI64,2)</f>
+        <v>90.699999999999989</v>
+      </c>
+      <c r="AO99" s="13">
+        <f>_xlfn.QUARTILE.INC($AI57:$AI64,3)</f>
+        <v>90.85</v>
+      </c>
+      <c r="AP99" s="13">
+        <f>MAX($AI57:$AI64)</f>
+        <v>91</v>
+      </c>
+      <c r="AQ99" s="13"/>
+      <c r="AR99" s="13"/>
+      <c r="AS99" s="13">
+        <f t="shared" si="188"/>
+        <v>0.14999999999999147</v>
+      </c>
+      <c r="AT99" s="13">
+        <f t="shared" si="189"/>
+        <v>0.14999999999999147</v>
+      </c>
+      <c r="AU99" s="13">
+        <f t="shared" si="190"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="AV99" s="13">
+        <f t="shared" si="191"/>
+        <v>0.15000000000000568</v>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="187"/>
         <v>8</v>
@@ -32048,49 +32320,49 @@
         <f t="shared" si="185"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="AN100" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO100" s="13">
-        <f xml:space="preserve"> MIN(AI3)</f>
-        <v>0</v>
-      </c>
-      <c r="AP100" s="13">
-        <f>_xlfn.QUARTILE.INC($AI3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="13">
-        <f>_xlfn.QUARTILE.INC($AI3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="AR100" s="13">
-        <f>_xlfn.QUARTILE.INC($AI3,3)</f>
-        <v>0</v>
-      </c>
-      <c r="AS100" s="13">
-        <f>MAX($AI3)</f>
-        <v>0</v>
-      </c>
-      <c r="AT100" s="13"/>
-      <c r="AU100" s="13"/>
-      <c r="AV100" s="13">
-        <f xml:space="preserve"> AP100 - AO100</f>
-        <v>0</v>
-      </c>
-      <c r="AW100" s="13">
-        <f xml:space="preserve"> AQ100 - AP100</f>
-        <v>0</v>
-      </c>
-      <c r="AX100" s="13">
-        <f xml:space="preserve"> AR100 - AQ100</f>
-        <v>0</v>
-      </c>
-      <c r="AY100" s="13">
-        <f xml:space="preserve"> AS100 - AR100</f>
-        <v>0</v>
+      <c r="AK100" s="11">
+        <v>10</v>
+      </c>
+      <c r="AL100" s="11">
+        <f>MIN(AI80:AI89)</f>
+        <v>87</v>
+      </c>
+      <c r="AM100" s="11">
+        <f>_xlfn.QUARTILE.INC($AI80:$AI89,1)</f>
+        <v>90</v>
+      </c>
+      <c r="AN100" s="11">
+        <f>_xlfn.QUARTILE.INC($AI80:$AI89,2)</f>
+        <v>103.7</v>
+      </c>
+      <c r="AO100" s="11">
+        <f>_xlfn.QUARTILE.INC($AI80:$AI89,3)</f>
+        <v>113.75</v>
+      </c>
+      <c r="AP100" s="11">
+        <f>MAX($AI80:$AI89)</f>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="AQ100" s="11"/>
+      <c r="AR100" s="11"/>
+      <c r="AS100" s="18">
+        <f t="shared" si="188"/>
+        <v>3</v>
+      </c>
+      <c r="AT100" s="18">
+        <f t="shared" si="189"/>
+        <v>13.700000000000003</v>
+      </c>
+      <c r="AU100" s="18">
+        <f t="shared" si="190"/>
+        <v>10.049999999999997</v>
+      </c>
+      <c r="AV100" s="18">
+        <f t="shared" si="191"/>
+        <v>22.449999999999989</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="187"/>
         <v>9</v>
@@ -32179,49 +32451,49 @@
         <f t="shared" si="185"/>
         <v>40</v>
       </c>
-      <c r="AN101" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO101" s="11">
-        <f>MIN(AI12:AI13)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AP101" s="11">
-        <f>_xlfn.QUARTILE.INC($AI12:$AI13,1)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AQ101" s="11">
-        <f>_xlfn.QUARTILE.INC($AI12:$AI13,2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AR101" s="11">
-        <f>_xlfn.QUARTILE.INC($AI12:$AI13,3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AS101" s="11">
-        <f>MAX($AI12:$AI13)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AT101" s="11"/>
-      <c r="AU101" s="11"/>
-      <c r="AV101" s="28">
-        <f t="shared" ref="AV101:AV108" si="188" xml:space="preserve"> AP101 - AO101</f>
-        <v>0</v>
-      </c>
-      <c r="AW101" s="28">
-        <f t="shared" ref="AW101:AW108" si="189" xml:space="preserve"> AQ101 - AP101</f>
-        <v>0</v>
-      </c>
-      <c r="AX101" s="28">
-        <f t="shared" ref="AX101:AX108" si="190" xml:space="preserve"> AR101 - AQ101</f>
-        <v>0</v>
-      </c>
-      <c r="AY101" s="28">
-        <f t="shared" ref="AY101:AY108" si="191" xml:space="preserve"> AS101 - AR101</f>
-        <v>0</v>
+      <c r="AK101" s="13">
+        <v>12</v>
+      </c>
+      <c r="AL101" s="13">
+        <f>MIN(AI107:AI118)</f>
+        <v>128</v>
+      </c>
+      <c r="AM101" s="13">
+        <f>_xlfn.QUARTILE.INC($AI107:$AI118,1)</f>
+        <v>128.6</v>
+      </c>
+      <c r="AN101" s="13">
+        <f>_xlfn.QUARTILE.INC($AI107:$AI118,2)</f>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="AO101" s="13">
+        <f>_xlfn.QUARTILE.INC($AI107:$AI118,3)</f>
+        <v>161.65</v>
+      </c>
+      <c r="AP101" s="13">
+        <f>MAX($AI107:$AI118)</f>
+        <v>162.4</v>
+      </c>
+      <c r="AQ101" s="13"/>
+      <c r="AR101" s="13"/>
+      <c r="AS101" s="13">
+        <f t="shared" si="188"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="AT101" s="13">
+        <f t="shared" si="189"/>
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="AU101" s="13">
+        <f t="shared" si="190"/>
+        <v>31.849999999999994</v>
+      </c>
+      <c r="AV101" s="13">
+        <f t="shared" si="191"/>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" si="187"/>
         <v>10</v>
@@ -32310,225 +32582,143 @@
         <f t="shared" si="185"/>
         <v>39.6</v>
       </c>
-      <c r="AN102" s="13">
-        <v>4</v>
-      </c>
-      <c r="AO102" s="13">
-        <f>MIN(AI23:AI26)</f>
-        <v>22.4</v>
-      </c>
-      <c r="AP102" s="13">
-        <f>_xlfn.QUARTILE.INC($AI23:$AI26,1)</f>
-        <v>23.3</v>
-      </c>
-      <c r="AQ102" s="13">
-        <f>_xlfn.QUARTILE.INC($AI23:$AI26,2)</f>
-        <v>24.200000000000003</v>
-      </c>
-      <c r="AR102" s="13">
-        <f>_xlfn.QUARTILE.INC($AI23:$AI26,3)</f>
-        <v>24.95</v>
-      </c>
-      <c r="AS102" s="13">
-        <f>MAX($AI23:$AI26)</f>
-        <v>25.4</v>
-      </c>
-      <c r="AT102" s="13"/>
-      <c r="AU102" s="13"/>
-      <c r="AV102" s="13">
+      <c r="AK102" s="11">
+        <v>14</v>
+      </c>
+      <c r="AL102" s="11">
+        <f>MIN(AI138:AI151)</f>
+        <v>102.2</v>
+      </c>
+      <c r="AM102" s="11">
+        <f>_xlfn.QUARTILE.INC($AI138:$AI151,1)</f>
+        <v>112.44999999999999</v>
+      </c>
+      <c r="AN102" s="11">
+        <f>_xlfn.QUARTILE.INC($AI138:$AI151,2)</f>
+        <v>117.9</v>
+      </c>
+      <c r="AO102" s="11">
+        <f>_xlfn.QUARTILE.INC($AI138:$AI151,3)</f>
+        <v>122.55</v>
+      </c>
+      <c r="AP102" s="11">
+        <f>MAX($AI138:$AI151)</f>
+        <v>123.8</v>
+      </c>
+      <c r="AQ102" s="11"/>
+      <c r="AR102" s="11"/>
+      <c r="AS102" s="18">
         <f t="shared" si="188"/>
-        <v>0.90000000000000213</v>
-      </c>
-      <c r="AW102" s="13">
+        <v>10.249999999999986</v>
+      </c>
+      <c r="AT102" s="18">
         <f t="shared" si="189"/>
-        <v>0.90000000000000213</v>
-      </c>
-      <c r="AX102" s="13">
+        <v>5.4500000000000171</v>
+      </c>
+      <c r="AU102" s="18">
         <f t="shared" si="190"/>
-        <v>0.74999999999999645</v>
-      </c>
-      <c r="AY102" s="13">
+        <v>4.6499999999999915</v>
+      </c>
+      <c r="AV102" s="18">
         <f t="shared" si="191"/>
-        <v>0.44999999999999929</v>
+        <v>1.25</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AN103" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO103" s="11">
-        <f>MIN(AI38:AI43)</f>
-        <v>27.4</v>
-      </c>
-      <c r="AP103" s="11">
-        <f>_xlfn.QUARTILE.INC($AI38:$AI43,1)</f>
-        <v>40.9</v>
-      </c>
-      <c r="AQ103" s="11">
-        <f>_xlfn.QUARTILE.INC($AI38:$AI43,2)</f>
-        <v>44</v>
-      </c>
-      <c r="AR103" s="11">
-        <f>_xlfn.QUARTILE.INC($AI38:$AI43,3)</f>
-        <v>44.4</v>
-      </c>
-      <c r="AS103" s="11">
-        <f>MAX($AI38:$AI43)</f>
-        <v>61</v>
-      </c>
-      <c r="AT103" s="11"/>
-      <c r="AU103" s="11"/>
-      <c r="AV103" s="28">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AK103" s="13">
+        <v>16</v>
+      </c>
+      <c r="AL103" s="13">
+        <f>MIN(AI173:AI188)</f>
+        <v>94.8</v>
+      </c>
+      <c r="AM103" s="13">
+        <f>_xlfn.QUARTILE.INC($AI173:$AI188,1)</f>
+        <v>98.350000000000009</v>
+      </c>
+      <c r="AN103" s="13">
+        <f>_xlfn.QUARTILE.INC($AI173:$AI188,2)</f>
+        <v>111.1</v>
+      </c>
+      <c r="AO103" s="13">
+        <f>_xlfn.QUARTILE.INC($AI173:$AI188,3)</f>
+        <v>121.75</v>
+      </c>
+      <c r="AP103" s="13">
+        <f>MAX($AI173:$AI188)</f>
+        <v>123</v>
+      </c>
+      <c r="AQ103" s="13"/>
+      <c r="AR103" s="13"/>
+      <c r="AS103" s="13">
         <f t="shared" si="188"/>
-        <v>13.5</v>
-      </c>
-      <c r="AW103" s="28">
+        <v>3.5500000000000114</v>
+      </c>
+      <c r="AT103" s="13">
         <f t="shared" si="189"/>
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="AX103" s="28">
+        <v>12.749999999999986</v>
+      </c>
+      <c r="AU103" s="13">
         <f t="shared" si="190"/>
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="AY103" s="28">
+        <v>10.650000000000006</v>
+      </c>
+      <c r="AV103" s="13">
         <f t="shared" si="191"/>
-        <v>16.600000000000001</v>
+        <v>1.25</v>
       </c>
     </row>
-    <row r="104" spans="1:51" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="AN104" s="13">
-        <v>8</v>
-      </c>
-      <c r="AO104" s="13">
-        <f>MIN(AI57:AI64)</f>
-        <v>90.4</v>
-      </c>
-      <c r="AP104" s="13">
-        <f>_xlfn.QUARTILE.INC($AI57:$AI64,1)</f>
-        <v>90.55</v>
-      </c>
-      <c r="AQ104" s="13">
-        <f>_xlfn.QUARTILE.INC($AI57:$AI64,2)</f>
-        <v>90.699999999999989</v>
-      </c>
-      <c r="AR104" s="13">
-        <f>_xlfn.QUARTILE.INC($AI57:$AI64,3)</f>
-        <v>90.85</v>
-      </c>
-      <c r="AS104" s="13">
-        <f>MAX($AI57:$AI64)</f>
-        <v>91</v>
-      </c>
-      <c r="AT104" s="13"/>
-      <c r="AU104" s="13"/>
-      <c r="AV104" s="13">
-        <f t="shared" si="188"/>
-        <v>0.14999999999999147</v>
-      </c>
-      <c r="AW104" s="13">
-        <f t="shared" si="189"/>
-        <v>0.14999999999999147</v>
-      </c>
-      <c r="AX104" s="13">
-        <f t="shared" si="190"/>
-        <v>0.15000000000000568</v>
-      </c>
-      <c r="AY104" s="13">
-        <f t="shared" si="191"/>
-        <v>0.15000000000000568</v>
-      </c>
+    <row r="104" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="17"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="17"/>
-      <c r="X105" s="17"/>
-      <c r="Y105" s="17"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="17"/>
-      <c r="AN105" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO105" s="11">
-        <f>MIN(AI80:AI89)</f>
-        <v>87</v>
-      </c>
-      <c r="AP105" s="11">
-        <f>_xlfn.QUARTILE.INC($AI80:$AI89,1)</f>
-        <v>90</v>
-      </c>
-      <c r="AQ105" s="11">
-        <f>_xlfn.QUARTILE.INC($AI80:$AI89,2)</f>
-        <v>103.7</v>
-      </c>
-      <c r="AR105" s="11">
-        <f>_xlfn.QUARTILE.INC($AI80:$AI89,3)</f>
-        <v>113.75</v>
-      </c>
-      <c r="AS105" s="11">
-        <f>MAX($AI80:$AI89)</f>
-        <v>136.19999999999999</v>
-      </c>
-      <c r="AT105" s="11"/>
-      <c r="AU105" s="11"/>
-      <c r="AV105" s="28">
-        <f t="shared" si="188"/>
-        <v>3</v>
-      </c>
-      <c r="AW105" s="28">
-        <f t="shared" si="189"/>
-        <v>13.700000000000003</v>
-      </c>
-      <c r="AX105" s="28">
-        <f t="shared" si="190"/>
-        <v>10.049999999999997</v>
-      </c>
-      <c r="AY105" s="28">
-        <f t="shared" si="191"/>
-        <v>22.449999999999989</v>
-      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="30"/>
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="30"/>
+      <c r="U105" s="30"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
@@ -32616,52 +32806,25 @@
       <c r="AH106" t="s">
         <v>10</v>
       </c>
-      <c r="AI106" s="26" t="s">
+      <c r="AI106" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AN106" s="13">
-        <v>12</v>
-      </c>
-      <c r="AO106" s="13">
-        <f>MIN(AI107:AI118)</f>
-        <v>128</v>
-      </c>
-      <c r="AP106" s="13">
-        <f>_xlfn.QUARTILE.INC($AI107:$AI118,1)</f>
-        <v>128.6</v>
-      </c>
-      <c r="AQ106" s="13">
-        <f>_xlfn.QUARTILE.INC($AI107:$AI118,2)</f>
-        <v>129.80000000000001</v>
-      </c>
-      <c r="AR106" s="13">
-        <f>_xlfn.QUARTILE.INC($AI107:$AI118,3)</f>
-        <v>161.65</v>
-      </c>
-      <c r="AS106" s="13">
-        <f>MAX($AI107:$AI118)</f>
-        <v>162.4</v>
-      </c>
-      <c r="AT106" s="13"/>
-      <c r="AU106" s="13"/>
-      <c r="AV106" s="13">
-        <f t="shared" si="188"/>
-        <v>0.59999999999999432</v>
-      </c>
-      <c r="AW106" s="13">
-        <f t="shared" si="189"/>
-        <v>1.2000000000000171</v>
-      </c>
-      <c r="AX106" s="13">
-        <f t="shared" si="190"/>
-        <v>31.849999999999994</v>
-      </c>
-      <c r="AY106" s="13">
-        <f t="shared" si="191"/>
-        <v>0.75</v>
-      </c>
+      <c r="AK106" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL106" s="38"/>
+      <c r="AM106" s="38"/>
+      <c r="AN106" s="38"/>
+      <c r="AO106" s="38"/>
+      <c r="AP106" s="38"/>
+      <c r="AQ106" s="38"/>
+      <c r="AR106" s="38"/>
+      <c r="AS106" s="38"/>
+      <c r="AT106" s="38"/>
+      <c r="AU106" s="38"/>
+      <c r="AV106" s="39"/>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -32749,49 +32912,20 @@
         <f t="shared" ref="AI107:AI118" si="196">AVERAGE(AD107:AH107)</f>
         <v>128.6</v>
       </c>
-      <c r="AN107" s="11">
-        <v>14</v>
-      </c>
-      <c r="AO107" s="11">
-        <f>MIN(AI138:AI151)</f>
-        <v>102.2</v>
-      </c>
-      <c r="AP107" s="11">
-        <f>_xlfn.QUARTILE.INC($AI138:$AI151,1)</f>
-        <v>112.44999999999999</v>
-      </c>
-      <c r="AQ107" s="11">
-        <f>_xlfn.QUARTILE.INC($AI138:$AI151,2)</f>
-        <v>117.9</v>
-      </c>
-      <c r="AR107" s="11">
-        <f>_xlfn.QUARTILE.INC($AI138:$AI151,3)</f>
-        <v>122.55</v>
-      </c>
-      <c r="AS107" s="11">
-        <f>MAX($AI138:$AI151)</f>
-        <v>123.8</v>
-      </c>
-      <c r="AT107" s="11"/>
-      <c r="AU107" s="11"/>
-      <c r="AV107" s="28">
-        <f t="shared" si="188"/>
-        <v>10.249999999999986</v>
-      </c>
-      <c r="AW107" s="28">
-        <f t="shared" si="189"/>
-        <v>5.4500000000000171</v>
-      </c>
-      <c r="AX107" s="28">
-        <f t="shared" si="190"/>
-        <v>4.6499999999999915</v>
-      </c>
-      <c r="AY107" s="28">
-        <f t="shared" si="191"/>
-        <v>1.25</v>
-      </c>
+      <c r="AK107" s="40"/>
+      <c r="AL107" s="41"/>
+      <c r="AM107" s="41"/>
+      <c r="AN107" s="41"/>
+      <c r="AO107" s="41"/>
+      <c r="AP107" s="41"/>
+      <c r="AQ107" s="41"/>
+      <c r="AR107" s="41"/>
+      <c r="AS107" s="41"/>
+      <c r="AT107" s="41"/>
+      <c r="AU107" s="41"/>
+      <c r="AV107" s="42"/>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f>A107+1</f>
         <v>2</v>
@@ -32880,49 +33014,40 @@
         <f t="shared" si="196"/>
         <v>128.6</v>
       </c>
-      <c r="AN108" s="13">
-        <v>16</v>
-      </c>
-      <c r="AO108" s="13">
-        <f>MIN(AI173:AI188)</f>
-        <v>94.8</v>
-      </c>
-      <c r="AP108" s="13">
-        <f>_xlfn.QUARTILE.INC($AI173:$AI188,1)</f>
-        <v>98.350000000000009</v>
-      </c>
-      <c r="AQ108" s="13">
-        <f>_xlfn.QUARTILE.INC($AI173:$AI188,2)</f>
-        <v>111.1</v>
-      </c>
-      <c r="AR108" s="13">
-        <f>_xlfn.QUARTILE.INC($AI173:$AI188,3)</f>
-        <v>121.75</v>
-      </c>
-      <c r="AS108" s="13">
-        <f>MAX($AI173:$AI188)</f>
-        <v>123</v>
-      </c>
-      <c r="AT108" s="13"/>
-      <c r="AU108" s="13"/>
-      <c r="AV108" s="13">
-        <f t="shared" si="188"/>
-        <v>3.5500000000000114</v>
-      </c>
-      <c r="AW108" s="13">
-        <f t="shared" si="189"/>
-        <v>12.749999999999986</v>
-      </c>
-      <c r="AX108" s="13">
-        <f t="shared" si="190"/>
-        <v>10.650000000000006</v>
-      </c>
-      <c r="AY108" s="13">
-        <f t="shared" si="191"/>
-        <v>1.25</v>
+      <c r="AK108" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL108" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM108" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN108" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO108" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP108" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ108" s="16"/>
+      <c r="AR108" s="16"/>
+      <c r="AS108" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT108" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU108" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV108" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" ref="A109:A118" si="198">A108+1</f>
         <v>3</v>
@@ -33011,8 +33136,49 @@
         <f t="shared" si="196"/>
         <v>128.6</v>
       </c>
+      <c r="AK109" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL109" s="13">
+        <f xml:space="preserve"> MIN($AI7)</f>
+        <v>5.8</v>
+      </c>
+      <c r="AM109" s="13">
+        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="AN109" s="13">
+        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,2)</f>
+        <v>5.8</v>
+      </c>
+      <c r="AO109" s="13">
+        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,3)</f>
+        <v>5.8</v>
+      </c>
+      <c r="AP109" s="13">
+        <f xml:space="preserve"> MAX($AI7)</f>
+        <v>5.8</v>
+      </c>
+      <c r="AQ109" s="13"/>
+      <c r="AR109" s="13"/>
+      <c r="AS109" s="13">
+        <f xml:space="preserve"> AM109 - AL109</f>
+        <v>0</v>
+      </c>
+      <c r="AT109" s="13">
+        <f xml:space="preserve"> AN109 - AM109</f>
+        <v>0</v>
+      </c>
+      <c r="AU109" s="13">
+        <f xml:space="preserve"> AO109 - AN109</f>
+        <v>0</v>
+      </c>
+      <c r="AV109" s="13">
+        <f xml:space="preserve"> AP109 - AO109</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="198"/>
         <v>4</v>
@@ -33101,8 +33267,49 @@
         <f t="shared" si="196"/>
         <v>128</v>
       </c>
+      <c r="AK110" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL110" s="11">
+        <f>MIN($AI17:$AI18)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM110" s="11">
+        <f>_xlfn.QUARTILE.INC($AI17:$AI18,1)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AN110" s="11">
+        <f>_xlfn.QUARTILE.INC($AI17:$AI18,2)</f>
+        <v>5.6</v>
+      </c>
+      <c r="AO110" s="11">
+        <f>_xlfn.QUARTILE.INC($AI17:$AI18,3)</f>
+        <v>6.1</v>
+      </c>
+      <c r="AP110" s="11">
+        <f>MAX($AI17:$AI18)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AQ110" s="11"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="18">
+        <f t="shared" ref="AS110:AS117" si="199" xml:space="preserve"> AM110 - AL110</f>
+        <v>0.5</v>
+      </c>
+      <c r="AT110" s="18">
+        <f t="shared" ref="AT110:AT117" si="200" xml:space="preserve"> AN110 - AM110</f>
+        <v>0.5</v>
+      </c>
+      <c r="AU110" s="18">
+        <f t="shared" ref="AU110:AU117" si="201" xml:space="preserve"> AO110 - AN110</f>
+        <v>0.5</v>
+      </c>
+      <c r="AV110" s="18">
+        <f t="shared" ref="AV110:AV117" si="202" xml:space="preserve"> AP110 - AO110</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="198"/>
         <v>5</v>
@@ -33191,8 +33398,49 @@
         <f t="shared" si="196"/>
         <v>129.4</v>
       </c>
+      <c r="AK111" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL111" s="13">
+        <f>MIN($AI30:$AI33)</f>
+        <v>3</v>
+      </c>
+      <c r="AM111" s="13">
+        <f>_xlfn.QUARTILE.INC($AI30:$AI33,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="AN111" s="13">
+        <f>_xlfn.QUARTILE.INC($AI30:$AI33,2)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AO111" s="13">
+        <f>_xlfn.QUARTILE.INC($AI30:$AI33,3)</f>
+        <v>3.95</v>
+      </c>
+      <c r="AP111" s="13">
+        <f>MAX($AI30:$AI33)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ111" s="13"/>
+      <c r="AR111" s="13"/>
+      <c r="AS111" s="13">
+        <f t="shared" si="199"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AT111" s="13">
+        <f t="shared" si="200"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="AU111" s="13">
+        <f t="shared" si="201"/>
+        <v>0.35000000000000053</v>
+      </c>
+      <c r="AV111" s="13">
+        <f t="shared" si="202"/>
+        <v>0.45000000000000018</v>
+      </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="198"/>
         <v>6</v>
@@ -33281,8 +33529,49 @@
         <f t="shared" si="196"/>
         <v>130</v>
       </c>
+      <c r="AK112" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL112" s="11">
+        <f>MIN($AI47:$AI52)</f>
+        <v>2.4</v>
+      </c>
+      <c r="AM112" s="11">
+        <f>_xlfn.QUARTILE.INC($AI47:$AI52,1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="AN112" s="11">
+        <f>_xlfn.QUARTILE.INC($AI47:$AI52,2)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AO112" s="11">
+        <f>_xlfn.QUARTILE.INC($AI47:$AI52,3)</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AP112" s="11">
+        <f>MAX($AI47:$AI52)</f>
+        <v>5.6</v>
+      </c>
+      <c r="AQ112" s="11"/>
+      <c r="AR112" s="11"/>
+      <c r="AS112" s="18">
+        <f t="shared" si="199"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="AT112" s="18">
+        <f t="shared" si="200"/>
+        <v>0.5</v>
+      </c>
+      <c r="AU112" s="18">
+        <f t="shared" si="201"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="AV112" s="18">
+        <f t="shared" si="202"/>
+        <v>1.4499999999999993</v>
+      </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="198"/>
         <v>7</v>
@@ -33371,8 +33660,49 @@
         <f t="shared" si="196"/>
         <v>129.6</v>
       </c>
+      <c r="AK113" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL113" s="13">
+        <f>MIN($AI68:$AI75)</f>
+        <v>143.19999999999999</v>
+      </c>
+      <c r="AM113" s="13">
+        <f>_xlfn.QUARTILE.INC($AI68:$AI75,1)</f>
+        <v>144.04999999999998</v>
+      </c>
+      <c r="AN113" s="13">
+        <f>_xlfn.QUARTILE.INC($AI68:$AI75,2)</f>
+        <v>144.5</v>
+      </c>
+      <c r="AO113" s="13">
+        <f>_xlfn.QUARTILE.INC($AI68:$AI75,3)</f>
+        <v>145.5</v>
+      </c>
+      <c r="AP113" s="13">
+        <f>MAX($AI68:$AI75)</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="AQ113" s="13"/>
+      <c r="AR113" s="13"/>
+      <c r="AS113" s="13">
+        <f t="shared" si="199"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="AT113" s="13">
+        <f t="shared" si="200"/>
+        <v>0.45000000000001705</v>
+      </c>
+      <c r="AU113" s="13">
+        <f t="shared" si="201"/>
+        <v>1</v>
+      </c>
+      <c r="AV113" s="13">
+        <f t="shared" si="202"/>
+        <v>3.3000000000000114</v>
+      </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="198"/>
         <v>8</v>
@@ -33461,22 +33791,49 @@
         <f t="shared" si="196"/>
         <v>130</v>
       </c>
-      <c r="AN114" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO114" s="27"/>
-      <c r="AP114" s="27"/>
-      <c r="AQ114" s="27"/>
-      <c r="AR114" s="27"/>
-      <c r="AS114" s="27"/>
-      <c r="AT114" s="27"/>
-      <c r="AU114" s="27"/>
-      <c r="AV114" s="27"/>
-      <c r="AW114" s="27"/>
-      <c r="AX114" s="27"/>
-      <c r="AY114" s="27"/>
+      <c r="AK114" s="11">
+        <v>10</v>
+      </c>
+      <c r="AL114" s="11">
+        <f>MIN($AI93:$AI102)</f>
+        <v>39.6</v>
+      </c>
+      <c r="AM114" s="11">
+        <f>_xlfn.QUARTILE.INC($AI93:$AI102,1)</f>
+        <v>49.400000000000006</v>
+      </c>
+      <c r="AN114" s="11">
+        <f>_xlfn.QUARTILE.INC($AI93:$AI102,2)</f>
+        <v>59.1</v>
+      </c>
+      <c r="AO114" s="11">
+        <f>_xlfn.QUARTILE.INC($AI93:$AI102,3)</f>
+        <v>60.050000000000004</v>
+      </c>
+      <c r="AP114" s="11">
+        <f>MAX($AI93:$AI102)</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AQ114" s="11"/>
+      <c r="AR114" s="11"/>
+      <c r="AS114" s="18">
+        <f t="shared" si="199"/>
+        <v>9.8000000000000043</v>
+      </c>
+      <c r="AT114" s="18">
+        <f t="shared" si="200"/>
+        <v>9.6999999999999957</v>
+      </c>
+      <c r="AU114" s="18">
+        <f t="shared" si="201"/>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="AV114" s="18">
+        <f t="shared" si="202"/>
+        <v>4.3500000000000014</v>
+      </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="198"/>
         <v>9</v>
@@ -33565,20 +33922,49 @@
         <f t="shared" si="196"/>
         <v>161.80000000000001</v>
       </c>
-      <c r="AN115" s="27"/>
-      <c r="AO115" s="27"/>
-      <c r="AP115" s="27"/>
-      <c r="AQ115" s="27"/>
-      <c r="AR115" s="27"/>
-      <c r="AS115" s="27"/>
-      <c r="AT115" s="27"/>
-      <c r="AU115" s="27"/>
-      <c r="AV115" s="27"/>
-      <c r="AW115" s="27"/>
-      <c r="AX115" s="27"/>
-      <c r="AY115" s="27"/>
+      <c r="AK115" s="13">
+        <v>12</v>
+      </c>
+      <c r="AL115" s="13">
+        <f>MIN($AI122:$AI133)</f>
+        <v>30.6</v>
+      </c>
+      <c r="AM115" s="13">
+        <f>_xlfn.QUARTILE.INC($AI122:$AI133,1)</f>
+        <v>36.4</v>
+      </c>
+      <c r="AN115" s="13">
+        <f>_xlfn.QUARTILE.INC($AI122:$AI133,2)</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="AO115" s="13">
+        <f>_xlfn.QUARTILE.INC($AI122:$AI133,3)</f>
+        <v>53.849999999999994</v>
+      </c>
+      <c r="AP115" s="13">
+        <f>MAX($AI122:$AI133)</f>
+        <v>56.4</v>
+      </c>
+      <c r="AQ115" s="13"/>
+      <c r="AR115" s="13"/>
+      <c r="AS115" s="13">
+        <f t="shared" si="199"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="AT115" s="13">
+        <f t="shared" si="200"/>
+        <v>10.199999999999996</v>
+      </c>
+      <c r="AU115" s="13">
+        <f t="shared" si="201"/>
+        <v>7.25</v>
+      </c>
+      <c r="AV115" s="13">
+        <f t="shared" si="202"/>
+        <v>2.5500000000000043</v>
+      </c>
     </row>
-    <row r="116" spans="1:51" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="198"/>
         <v>10</v>
@@ -33667,40 +34053,49 @@
         <f t="shared" si="196"/>
         <v>162.4</v>
       </c>
-      <c r="AN116" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO116" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP116" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ116" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR116" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS116" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT116" s="16"/>
-      <c r="AU116" s="16"/>
-      <c r="AV116" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW116" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX116" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY116" s="16" t="s">
-        <v>59</v>
+      <c r="AK116" s="11">
+        <v>14</v>
+      </c>
+      <c r="AL116" s="11">
+        <f>MIN($AI155:$AI168)</f>
+        <v>50.6</v>
+      </c>
+      <c r="AM116" s="11">
+        <f>_xlfn.QUARTILE.INC($AI155:$AI168,1)</f>
+        <v>55.099999999999994</v>
+      </c>
+      <c r="AN116" s="11">
+        <f>_xlfn.QUARTILE.INC($AI155:$AI168,2)</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="AO116" s="11">
+        <f>_xlfn.QUARTILE.INC($AI155:$AI168,3)</f>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="AP116" s="11">
+        <f>MAX($AI155:$AI168)</f>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AQ116" s="11"/>
+      <c r="AR116" s="11"/>
+      <c r="AS116" s="18">
+        <f t="shared" si="199"/>
+        <v>4.4999999999999929</v>
+      </c>
+      <c r="AT116" s="18">
+        <f t="shared" si="200"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU116" s="18">
+        <f t="shared" si="201"/>
+        <v>11.25</v>
+      </c>
+      <c r="AV116" s="18">
+        <f t="shared" si="202"/>
+        <v>2.5500000000000114</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="198"/>
         <v>11</v>
@@ -33789,49 +34184,49 @@
         <f t="shared" si="196"/>
         <v>161.6</v>
       </c>
+      <c r="AK117" s="13">
+        <v>16</v>
+      </c>
+      <c r="AL117" s="13">
+        <f>MIN($AI192:$AI207)</f>
+        <v>167.8</v>
+      </c>
+      <c r="AM117" s="13">
+        <f>_xlfn.QUARTILE.INC($AI192:$AI207,1)</f>
+        <v>171.45000000000002</v>
+      </c>
       <c r="AN117" s="13">
-        <v>1</v>
+        <f>_xlfn.QUARTILE.INC($AI192:$AI207,2)</f>
+        <v>180.89999999999998</v>
       </c>
       <c r="AO117" s="13">
-        <f xml:space="preserve"> MIN($AI7)</f>
-        <v>5.8</v>
+        <f>_xlfn.QUARTILE.INC($AI192:$AI207,3)</f>
+        <v>189.7</v>
       </c>
       <c r="AP117" s="13">
-        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="AQ117" s="13">
-        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,2)</f>
-        <v>5.8</v>
-      </c>
-      <c r="AR117" s="13">
-        <f xml:space="preserve"> _xlfn.QUARTILE.INC($AI7,3)</f>
-        <v>5.8</v>
-      </c>
+        <f>MAX($AI192:$AI207)</f>
+        <v>193.2</v>
+      </c>
+      <c r="AQ117" s="13"/>
+      <c r="AR117" s="13"/>
       <c r="AS117" s="13">
-        <f xml:space="preserve"> MAX($AI7)</f>
-        <v>5.8</v>
-      </c>
-      <c r="AT117" s="13"/>
-      <c r="AU117" s="13"/>
+        <f t="shared" si="199"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="AT117" s="13">
+        <f t="shared" si="200"/>
+        <v>9.4499999999999602</v>
+      </c>
+      <c r="AU117" s="13">
+        <f t="shared" si="201"/>
+        <v>8.8000000000000114</v>
+      </c>
       <c r="AV117" s="13">
-        <f xml:space="preserve"> AP117 - AO117</f>
-        <v>0</v>
-      </c>
-      <c r="AW117" s="13">
-        <f xml:space="preserve"> AQ117 - AP117</f>
-        <v>0</v>
-      </c>
-      <c r="AX117" s="13">
-        <f xml:space="preserve"> AR117 - AQ117</f>
-        <v>0</v>
-      </c>
-      <c r="AY117" s="13">
-        <f xml:space="preserve"> AS117 - AR117</f>
-        <v>0</v>
+        <f t="shared" si="202"/>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="198"/>
         <v>12</v>
@@ -33897,187 +34292,62 @@
         <v>122</v>
       </c>
       <c r="AD118">
-        <f t="shared" ref="AD118" si="199">P118 + W118</f>
+        <f t="shared" ref="AD118" si="203">P118 + W118</f>
         <v>45</v>
       </c>
       <c r="AE118">
-        <f t="shared" ref="AE118" si="200">Q118 + X118</f>
+        <f t="shared" ref="AE118" si="204">Q118 + X118</f>
         <v>80</v>
       </c>
       <c r="AF118">
-        <f t="shared" ref="AF118" si="201">R118 + Y118</f>
+        <f t="shared" ref="AF118" si="205">R118 + Y118</f>
         <v>133</v>
       </c>
       <c r="AG118">
-        <f t="shared" ref="AG118" si="202">S118 + Z118</f>
+        <f t="shared" ref="AG118" si="206">S118 + Z118</f>
         <v>243</v>
       </c>
       <c r="AH118">
-        <f t="shared" ref="AH118" si="203">T118 + AA118</f>
+        <f t="shared" ref="AH118" si="207">T118 + AA118</f>
         <v>308</v>
       </c>
       <c r="AI118">
         <f t="shared" si="196"/>
         <v>161.80000000000001</v>
       </c>
-      <c r="AN118" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO118" s="11">
-        <f>MIN($AI17:$AI18)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AP118" s="11">
-        <f>_xlfn.QUARTILE.INC($AI17:$AI18,1)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AQ118" s="11">
-        <f>_xlfn.QUARTILE.INC($AI17:$AI18,2)</f>
-        <v>5.6</v>
-      </c>
-      <c r="AR118" s="11">
-        <f>_xlfn.QUARTILE.INC($AI17:$AI18,3)</f>
-        <v>6.1</v>
-      </c>
-      <c r="AS118" s="11">
-        <f>MAX($AI17:$AI18)</f>
-        <v>6.6</v>
-      </c>
-      <c r="AT118" s="11"/>
-      <c r="AU118" s="11"/>
-      <c r="AV118" s="28">
-        <f t="shared" ref="AV118:AV125" si="204" xml:space="preserve"> AP118 - AO118</f>
-        <v>0.5</v>
-      </c>
-      <c r="AW118" s="28">
-        <f t="shared" ref="AW118:AW125" si="205" xml:space="preserve"> AQ118 - AP118</f>
-        <v>0.5</v>
-      </c>
-      <c r="AX118" s="28">
-        <f t="shared" ref="AX118:AX125" si="206" xml:space="preserve"> AR118 - AQ118</f>
-        <v>0.5</v>
-      </c>
-      <c r="AY118" s="28">
-        <f t="shared" ref="AY118:AY125" si="207" xml:space="preserve"> AS118 - AR118</f>
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AN119" s="13">
-        <v>4</v>
-      </c>
-      <c r="AO119" s="13">
-        <f>MIN($AI30:$AI33)</f>
-        <v>3</v>
-      </c>
-      <c r="AP119" s="13">
-        <f>_xlfn.QUARTILE.INC($AI30:$AI33,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="AQ119" s="13">
-        <f>_xlfn.QUARTILE.INC($AI30:$AI33,2)</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="AR119" s="13">
-        <f>_xlfn.QUARTILE.INC($AI30:$AI33,3)</f>
-        <v>3.95</v>
-      </c>
-      <c r="AS119" s="13">
-        <f>MAX($AI30:$AI33)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AT119" s="13"/>
-      <c r="AU119" s="13"/>
-      <c r="AV119" s="13">
-        <f t="shared" si="204"/>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="AW119" s="13">
-        <f t="shared" si="205"/>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="AX119" s="13">
-        <f t="shared" si="206"/>
-        <v>0.35000000000000053</v>
-      </c>
-      <c r="AY119" s="13">
-        <f t="shared" si="207"/>
-        <v>0.45000000000000018</v>
-      </c>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
+      <c r="R120" s="28"/>
+      <c r="S120" s="28"/>
+      <c r="T120" s="28"/>
+      <c r="U120" s="28"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="28"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="18"/>
-      <c r="AA120" s="18"/>
-      <c r="AN120" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO120" s="11">
-        <f>MIN($AI47:$AI52)</f>
-        <v>2.4</v>
-      </c>
-      <c r="AP120" s="11">
-        <f>_xlfn.QUARTILE.INC($AI47:$AI52,1)</f>
-        <v>2.7</v>
-      </c>
-      <c r="AQ120" s="11">
-        <f>_xlfn.QUARTILE.INC($AI47:$AI52,2)</f>
-        <v>3.2</v>
-      </c>
-      <c r="AR120" s="11">
-        <f>_xlfn.QUARTILE.INC($AI47:$AI52,3)</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="AS120" s="11">
-        <f>MAX($AI47:$AI52)</f>
-        <v>5.6</v>
-      </c>
-      <c r="AT120" s="11"/>
-      <c r="AU120" s="11"/>
-      <c r="AV120" s="28">
-        <f t="shared" si="204"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="AW120" s="28">
-        <f t="shared" si="205"/>
-        <v>0.5</v>
-      </c>
-      <c r="AX120" s="28">
-        <f t="shared" si="206"/>
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="AY120" s="28">
-        <f t="shared" si="207"/>
-        <v>1.4499999999999993</v>
-      </c>
-    </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
@@ -34165,52 +34435,11 @@
       <c r="AH121" t="s">
         <v>10</v>
       </c>
-      <c r="AI121" s="26" t="s">
+      <c r="AI121" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AN121" s="13">
-        <v>8</v>
-      </c>
-      <c r="AO121" s="13">
-        <f>MIN($AI68:$AI75)</f>
-        <v>143.19999999999999</v>
-      </c>
-      <c r="AP121" s="13">
-        <f>_xlfn.QUARTILE.INC($AI68:$AI75,1)</f>
-        <v>144.04999999999998</v>
-      </c>
-      <c r="AQ121" s="13">
-        <f>_xlfn.QUARTILE.INC($AI68:$AI75,2)</f>
-        <v>144.5</v>
-      </c>
-      <c r="AR121" s="13">
-        <f>_xlfn.QUARTILE.INC($AI68:$AI75,3)</f>
-        <v>145.5</v>
-      </c>
-      <c r="AS121" s="13">
-        <f>MAX($AI68:$AI75)</f>
-        <v>148.80000000000001</v>
-      </c>
-      <c r="AT121" s="13"/>
-      <c r="AU121" s="13"/>
-      <c r="AV121" s="13">
-        <f t="shared" si="204"/>
-        <v>0.84999999999999432</v>
-      </c>
-      <c r="AW121" s="13">
-        <f t="shared" si="205"/>
-        <v>0.45000000000001705</v>
-      </c>
-      <c r="AX121" s="13">
-        <f t="shared" si="206"/>
-        <v>1</v>
-      </c>
-      <c r="AY121" s="13">
-        <f t="shared" si="207"/>
-        <v>3.3000000000000114</v>
-      </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1</v>
       </c>
@@ -34298,49 +34527,8 @@
         <f t="shared" ref="AI122:AI133" si="212">AVERAGE(AD122:AH122)</f>
         <v>40</v>
       </c>
-      <c r="AN122" s="11">
-        <v>10</v>
-      </c>
-      <c r="AO122" s="11">
-        <f>MIN($AI93:$AI102)</f>
-        <v>39.6</v>
-      </c>
-      <c r="AP122" s="11">
-        <f>_xlfn.QUARTILE.INC($AI93:$AI102,1)</f>
-        <v>49.400000000000006</v>
-      </c>
-      <c r="AQ122" s="11">
-        <f>_xlfn.QUARTILE.INC($AI93:$AI102,2)</f>
-        <v>59.1</v>
-      </c>
-      <c r="AR122" s="11">
-        <f>_xlfn.QUARTILE.INC($AI93:$AI102,3)</f>
-        <v>60.050000000000004</v>
-      </c>
-      <c r="AS122" s="11">
-        <f>MAX($AI93:$AI102)</f>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AT122" s="11"/>
-      <c r="AU122" s="11"/>
-      <c r="AV122" s="28">
-        <f t="shared" si="204"/>
-        <v>9.8000000000000043</v>
-      </c>
-      <c r="AW122" s="28">
-        <f t="shared" si="205"/>
-        <v>9.6999999999999957</v>
-      </c>
-      <c r="AX122" s="28">
-        <f t="shared" si="206"/>
-        <v>0.95000000000000284</v>
-      </c>
-      <c r="AY122" s="28">
-        <f t="shared" si="207"/>
-        <v>4.3500000000000014</v>
-      </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <f>A122+1</f>
         <v>2</v>
@@ -34429,49 +34617,8 @@
         <f t="shared" si="212"/>
         <v>41.4</v>
       </c>
-      <c r="AN123" s="13">
-        <v>12</v>
-      </c>
-      <c r="AO123" s="13">
-        <f>MIN($AI122:$AI133)</f>
-        <v>30.6</v>
-      </c>
-      <c r="AP123" s="13">
-        <f>_xlfn.QUARTILE.INC($AI122:$AI133,1)</f>
-        <v>36.4</v>
-      </c>
-      <c r="AQ123" s="13">
-        <f>_xlfn.QUARTILE.INC($AI122:$AI133,2)</f>
-        <v>46.599999999999994</v>
-      </c>
-      <c r="AR123" s="13">
-        <f>_xlfn.QUARTILE.INC($AI122:$AI133,3)</f>
-        <v>53.849999999999994</v>
-      </c>
-      <c r="AS123" s="13">
-        <f>MAX($AI122:$AI133)</f>
-        <v>56.4</v>
-      </c>
-      <c r="AT123" s="13"/>
-      <c r="AU123" s="13"/>
-      <c r="AV123" s="13">
-        <f t="shared" si="204"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="AW123" s="13">
-        <f t="shared" si="205"/>
-        <v>10.199999999999996</v>
-      </c>
-      <c r="AX123" s="13">
-        <f t="shared" si="206"/>
-        <v>7.25</v>
-      </c>
-      <c r="AY123" s="13">
-        <f t="shared" si="207"/>
-        <v>2.5500000000000043</v>
-      </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <f t="shared" ref="A124:A133" si="214">A123+1</f>
         <v>3</v>
@@ -34560,49 +34707,8 @@
         <f t="shared" si="212"/>
         <v>56</v>
       </c>
-      <c r="AN124" s="11">
-        <v>14</v>
-      </c>
-      <c r="AO124" s="11">
-        <f>MIN($AI155:$AI168)</f>
-        <v>50.6</v>
-      </c>
-      <c r="AP124" s="11">
-        <f>_xlfn.QUARTILE.INC($AI155:$AI168,1)</f>
-        <v>55.099999999999994</v>
-      </c>
-      <c r="AQ124" s="11">
-        <f>_xlfn.QUARTILE.INC($AI155:$AI168,2)</f>
-        <v>57.599999999999994</v>
-      </c>
-      <c r="AR124" s="11">
-        <f>_xlfn.QUARTILE.INC($AI155:$AI168,3)</f>
-        <v>68.849999999999994</v>
-      </c>
-      <c r="AS124" s="11">
-        <f>MAX($AI155:$AI168)</f>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="AT124" s="11"/>
-      <c r="AU124" s="11"/>
-      <c r="AV124" s="28">
-        <f t="shared" si="204"/>
-        <v>4.4999999999999929</v>
-      </c>
-      <c r="AW124" s="28">
-        <f t="shared" si="205"/>
-        <v>2.5</v>
-      </c>
-      <c r="AX124" s="28">
-        <f t="shared" si="206"/>
-        <v>11.25</v>
-      </c>
-      <c r="AY124" s="28">
-        <f t="shared" si="207"/>
-        <v>2.5500000000000114</v>
-      </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <f t="shared" si="214"/>
         <v>4</v>
@@ -34691,49 +34797,8 @@
         <f t="shared" si="212"/>
         <v>51.8</v>
       </c>
-      <c r="AN125" s="13">
-        <v>16</v>
-      </c>
-      <c r="AO125" s="13">
-        <f>MIN($AI192:$AI207)</f>
-        <v>167.8</v>
-      </c>
-      <c r="AP125" s="13">
-        <f>_xlfn.QUARTILE.INC($AI192:$AI207,1)</f>
-        <v>171.45000000000002</v>
-      </c>
-      <c r="AQ125" s="13">
-        <f>_xlfn.QUARTILE.INC($AI192:$AI207,2)</f>
-        <v>180.89999999999998</v>
-      </c>
-      <c r="AR125" s="13">
-        <f>_xlfn.QUARTILE.INC($AI192:$AI207,3)</f>
-        <v>189.7</v>
-      </c>
-      <c r="AS125" s="13">
-        <f>MAX($AI192:$AI207)</f>
-        <v>193.2</v>
-      </c>
-      <c r="AT125" s="13"/>
-      <c r="AU125" s="13"/>
-      <c r="AV125" s="13">
-        <f t="shared" si="204"/>
-        <v>3.6500000000000057</v>
-      </c>
-      <c r="AW125" s="13">
-        <f t="shared" si="205"/>
-        <v>9.4499999999999602</v>
-      </c>
-      <c r="AX125" s="13">
-        <f t="shared" si="206"/>
-        <v>8.8000000000000114</v>
-      </c>
-      <c r="AY125" s="13">
-        <f t="shared" si="207"/>
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <f t="shared" si="214"/>
         <v>5</v>
@@ -34823,7 +34888,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f t="shared" si="214"/>
         <v>6</v>
@@ -34913,7 +34978,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <f t="shared" si="214"/>
         <v>7</v>
@@ -35454,55 +35519,55 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
+      <c r="P135" s="29"/>
+      <c r="Q135" s="29"/>
+      <c r="R135" s="29"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="17"/>
-      <c r="Y136" s="17"/>
-      <c r="Z136" s="17"/>
-      <c r="AA136" s="17"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="30"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="30"/>
+      <c r="R136" s="30"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="30"/>
+      <c r="U136" s="30"/>
+      <c r="V136" s="30"/>
+      <c r="W136" s="30"/>
+      <c r="X136" s="30"/>
+      <c r="Y136" s="30"/>
+      <c r="Z136" s="30"/>
+      <c r="AA136" s="30"/>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -35592,7 +35657,7 @@
       <c r="AH137" t="s">
         <v>10</v>
       </c>
-      <c r="AI137" s="26" t="s">
+      <c r="AI137" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36856,35 +36921,35 @@
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="18"/>
-      <c r="U153" s="18"/>
-      <c r="V153" s="18"/>
-      <c r="W153" s="18"/>
-      <c r="X153" s="18"/>
-      <c r="Y153" s="18"/>
-      <c r="Z153" s="18"/>
-      <c r="AA153" s="18"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="28"/>
+      <c r="P153" s="28"/>
+      <c r="Q153" s="28"/>
+      <c r="R153" s="28"/>
+      <c r="S153" s="28"/>
+      <c r="T153" s="28"/>
+      <c r="U153" s="28"/>
+      <c r="V153" s="28"/>
+      <c r="W153" s="28"/>
+      <c r="X153" s="28"/>
+      <c r="Y153" s="28"/>
+      <c r="Z153" s="28"/>
+      <c r="AA153" s="28"/>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -36974,7 +37039,7 @@
       <c r="AH154" t="s">
         <v>10</v>
       </c>
-      <c r="AI154" s="26" t="s">
+      <c r="AI154" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38238,55 +38303,55 @@
       </c>
     </row>
     <row r="170" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-      <c r="O170" s="19"/>
-      <c r="P170" s="19"/>
-      <c r="Q170" s="19"/>
-      <c r="R170" s="19"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="29"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="29"/>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
-      <c r="O171" s="17"/>
-      <c r="P171" s="17"/>
-      <c r="Q171" s="17"/>
-      <c r="R171" s="17"/>
-      <c r="S171" s="17"/>
-      <c r="T171" s="17"/>
-      <c r="U171" s="17"/>
-      <c r="V171" s="17"/>
-      <c r="W171" s="17"/>
-      <c r="X171" s="17"/>
-      <c r="Y171" s="17"/>
-      <c r="Z171" s="17"/>
-      <c r="AA171" s="17"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30"/>
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30"/>
+      <c r="S171" s="30"/>
+      <c r="T171" s="30"/>
+      <c r="U171" s="30"/>
+      <c r="V171" s="30"/>
+      <c r="W171" s="30"/>
+      <c r="X171" s="30"/>
+      <c r="Y171" s="30"/>
+      <c r="Z171" s="30"/>
+      <c r="AA171" s="30"/>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
@@ -38376,7 +38441,7 @@
       <c r="AH172" t="s">
         <v>10</v>
       </c>
-      <c r="AI172" s="26" t="s">
+      <c r="AI172" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -38555,7 +38620,7 @@
         <v>228</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI173:AI188" si="239">AVERAGE(AD174:AH174)</f>
+        <f t="shared" ref="AI174:AI188" si="239">AVERAGE(AD174:AH174)</f>
         <v>98.2</v>
       </c>
     </row>
@@ -39820,35 +39885,35 @@
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
-      <c r="T190" s="18"/>
-      <c r="U190" s="18"/>
-      <c r="V190" s="18"/>
-      <c r="W190" s="18"/>
-      <c r="X190" s="18"/>
-      <c r="Y190" s="18"/>
-      <c r="Z190" s="18"/>
-      <c r="AA190" s="18"/>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="28"/>
+      <c r="P190" s="28"/>
+      <c r="Q190" s="28"/>
+      <c r="R190" s="28"/>
+      <c r="S190" s="28"/>
+      <c r="T190" s="28"/>
+      <c r="U190" s="28"/>
+      <c r="V190" s="28"/>
+      <c r="W190" s="28"/>
+      <c r="X190" s="28"/>
+      <c r="Y190" s="28"/>
+      <c r="Z190" s="28"/>
+      <c r="AA190" s="28"/>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
@@ -39938,7 +40003,7 @@
       <c r="AH191" t="s">
         <v>10</v>
       </c>
-      <c r="AI191" s="26" t="s">
+      <c r="AI191" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -41382,188 +41447,151 @@
       </c>
     </row>
     <row r="211" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z211" s="29"/>
-      <c r="AA211" s="29"/>
-      <c r="AB211" s="29"/>
-      <c r="AC211" s="29"/>
-      <c r="AD211" s="29"/>
-      <c r="AE211" s="29"/>
-      <c r="AF211" s="29"/>
-      <c r="AG211" s="29"/>
-      <c r="AH211" s="29"/>
-      <c r="AI211" s="29"/>
+      <c r="Z211" s="19"/>
+      <c r="AA211" s="19"/>
+      <c r="AB211" s="19"/>
+      <c r="AC211" s="19"/>
+      <c r="AD211" s="19"/>
+      <c r="AE211" s="19"/>
+      <c r="AF211" s="19"/>
+      <c r="AG211" s="19"/>
+      <c r="AH211" s="19"/>
+      <c r="AI211" s="19"/>
     </row>
     <row r="212" spans="26:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z212" s="29"/>
-      <c r="AA212" s="29"/>
-      <c r="AB212" s="29"/>
-      <c r="AC212" s="29"/>
-      <c r="AD212" s="29"/>
-      <c r="AE212" s="29"/>
-      <c r="AF212" s="29"/>
-      <c r="AG212" s="29"/>
-      <c r="AH212" s="29"/>
-      <c r="AI212" s="29"/>
+      <c r="Z212" s="19"/>
+      <c r="AA212" s="19"/>
+      <c r="AB212" s="19"/>
+      <c r="AC212" s="19"/>
+      <c r="AD212" s="19"/>
+      <c r="AE212" s="19"/>
+      <c r="AF212" s="19"/>
+      <c r="AG212" s="19"/>
+      <c r="AH212" s="19"/>
+      <c r="AI212" s="19"/>
     </row>
     <row r="213" spans="26:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z213" s="30"/>
-      <c r="AA213" s="30"/>
-      <c r="AB213" s="30"/>
-      <c r="AC213" s="30"/>
-      <c r="AD213" s="30"/>
-      <c r="AE213" s="30"/>
-      <c r="AF213" s="30"/>
-      <c r="AG213" s="30"/>
-      <c r="AH213" s="30"/>
-      <c r="AI213" s="30"/>
+      <c r="Z213" s="20"/>
+      <c r="AA213" s="20"/>
+      <c r="AB213" s="20"/>
+      <c r="AC213" s="20"/>
+      <c r="AD213" s="20"/>
+      <c r="AE213" s="20"/>
+      <c r="AF213" s="20"/>
+      <c r="AG213" s="20"/>
+      <c r="AH213" s="20"/>
+      <c r="AI213" s="20"/>
     </row>
     <row r="214" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z214" s="31"/>
-      <c r="AA214" s="31"/>
-      <c r="AB214" s="31"/>
-      <c r="AC214" s="31"/>
-      <c r="AD214" s="31"/>
-      <c r="AE214" s="31"/>
-      <c r="AF214" s="31"/>
-      <c r="AG214" s="31"/>
-      <c r="AH214" s="31"/>
-      <c r="AI214" s="31"/>
+      <c r="Z214" s="21"/>
+      <c r="AA214" s="21"/>
+      <c r="AB214" s="21"/>
+      <c r="AC214" s="21"/>
+      <c r="AD214" s="21"/>
+      <c r="AE214" s="21"/>
+      <c r="AF214" s="21"/>
+      <c r="AG214" s="21"/>
+      <c r="AH214" s="21"/>
+      <c r="AI214" s="21"/>
     </row>
     <row r="215" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z215" s="31"/>
-      <c r="AA215" s="31"/>
-      <c r="AB215" s="31"/>
-      <c r="AC215" s="31"/>
-      <c r="AD215" s="31"/>
-      <c r="AE215" s="31"/>
-      <c r="AF215" s="31"/>
-      <c r="AG215" s="31"/>
-      <c r="AH215" s="31"/>
-      <c r="AI215" s="31"/>
+      <c r="Z215" s="21"/>
+      <c r="AA215" s="21"/>
+      <c r="AB215" s="21"/>
+      <c r="AC215" s="21"/>
+      <c r="AD215" s="21"/>
+      <c r="AE215" s="21"/>
+      <c r="AF215" s="21"/>
+      <c r="AG215" s="21"/>
+      <c r="AH215" s="21"/>
+      <c r="AI215" s="21"/>
     </row>
     <row r="216" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z216" s="31"/>
-      <c r="AA216" s="31"/>
-      <c r="AB216" s="31"/>
-      <c r="AC216" s="31"/>
-      <c r="AD216" s="31"/>
-      <c r="AE216" s="31"/>
-      <c r="AF216" s="31"/>
-      <c r="AG216" s="31"/>
-      <c r="AH216" s="31"/>
-      <c r="AI216" s="31"/>
+      <c r="Z216" s="21"/>
+      <c r="AA216" s="21"/>
+      <c r="AB216" s="21"/>
+      <c r="AC216" s="21"/>
+      <c r="AD216" s="21"/>
+      <c r="AE216" s="21"/>
+      <c r="AF216" s="21"/>
+      <c r="AG216" s="21"/>
+      <c r="AH216" s="21"/>
+      <c r="AI216" s="21"/>
     </row>
     <row r="217" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z217" s="31"/>
-      <c r="AA217" s="31"/>
-      <c r="AB217" s="31"/>
-      <c r="AC217" s="31"/>
-      <c r="AD217" s="31"/>
-      <c r="AE217" s="31"/>
-      <c r="AF217" s="31"/>
-      <c r="AG217" s="31"/>
-      <c r="AH217" s="31"/>
-      <c r="AI217" s="31"/>
+      <c r="Z217" s="21"/>
+      <c r="AA217" s="21"/>
+      <c r="AB217" s="21"/>
+      <c r="AC217" s="21"/>
+      <c r="AD217" s="21"/>
+      <c r="AE217" s="21"/>
+      <c r="AF217" s="21"/>
+      <c r="AG217" s="21"/>
+      <c r="AH217" s="21"/>
+      <c r="AI217" s="21"/>
     </row>
     <row r="218" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z218" s="31"/>
-      <c r="AA218" s="31"/>
-      <c r="AB218" s="31"/>
-      <c r="AC218" s="31"/>
-      <c r="AD218" s="31"/>
-      <c r="AE218" s="31"/>
-      <c r="AF218" s="31"/>
-      <c r="AG218" s="31"/>
-      <c r="AH218" s="31"/>
-      <c r="AI218" s="31"/>
+      <c r="Z218" s="21"/>
+      <c r="AA218" s="21"/>
+      <c r="AB218" s="21"/>
+      <c r="AC218" s="21"/>
+      <c r="AD218" s="21"/>
+      <c r="AE218" s="21"/>
+      <c r="AF218" s="21"/>
+      <c r="AG218" s="21"/>
+      <c r="AH218" s="21"/>
+      <c r="AI218" s="21"/>
     </row>
     <row r="219" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z219" s="31"/>
-      <c r="AA219" s="31"/>
-      <c r="AB219" s="31"/>
-      <c r="AC219" s="31"/>
-      <c r="AD219" s="31"/>
-      <c r="AE219" s="31"/>
-      <c r="AF219" s="31"/>
-      <c r="AG219" s="31"/>
-      <c r="AH219" s="31"/>
-      <c r="AI219" s="31"/>
+      <c r="Z219" s="21"/>
+      <c r="AA219" s="21"/>
+      <c r="AB219" s="21"/>
+      <c r="AC219" s="21"/>
+      <c r="AD219" s="21"/>
+      <c r="AE219" s="21"/>
+      <c r="AF219" s="21"/>
+      <c r="AG219" s="21"/>
+      <c r="AH219" s="21"/>
+      <c r="AI219" s="21"/>
     </row>
     <row r="220" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z220" s="31"/>
-      <c r="AA220" s="31"/>
-      <c r="AB220" s="31"/>
-      <c r="AC220" s="31"/>
-      <c r="AD220" s="31"/>
-      <c r="AE220" s="31"/>
-      <c r="AF220" s="31"/>
-      <c r="AG220" s="31"/>
-      <c r="AH220" s="31"/>
-      <c r="AI220" s="31"/>
+      <c r="Z220" s="21"/>
+      <c r="AA220" s="21"/>
+      <c r="AB220" s="21"/>
+      <c r="AC220" s="21"/>
+      <c r="AD220" s="21"/>
+      <c r="AE220" s="21"/>
+      <c r="AF220" s="21"/>
+      <c r="AG220" s="21"/>
+      <c r="AH220" s="21"/>
+      <c r="AI220" s="21"/>
     </row>
     <row r="221" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z221" s="31"/>
-      <c r="AA221" s="31"/>
-      <c r="AB221" s="31"/>
-      <c r="AC221" s="31"/>
-      <c r="AD221" s="31"/>
-      <c r="AE221" s="31"/>
-      <c r="AF221" s="31"/>
-      <c r="AG221" s="31"/>
-      <c r="AH221" s="31"/>
-      <c r="AI221" s="31"/>
+      <c r="Z221" s="21"/>
+      <c r="AA221" s="21"/>
+      <c r="AB221" s="21"/>
+      <c r="AC221" s="21"/>
+      <c r="AD221" s="21"/>
+      <c r="AE221" s="21"/>
+      <c r="AF221" s="21"/>
+      <c r="AG221" s="21"/>
+      <c r="AH221" s="21"/>
+      <c r="AI221" s="21"/>
     </row>
     <row r="222" spans="26:35" x14ac:dyDescent="0.25">
-      <c r="Z222" s="31"/>
-      <c r="AA222" s="31"/>
-      <c r="AB222" s="31"/>
-      <c r="AC222" s="31"/>
-      <c r="AD222" s="31"/>
-      <c r="AE222" s="31"/>
-      <c r="AF222" s="31"/>
-      <c r="AG222" s="31"/>
-      <c r="AH222" s="31"/>
-      <c r="AI222" s="31"/>
+      <c r="Z222" s="21"/>
+      <c r="AA222" s="21"/>
+      <c r="AB222" s="21"/>
+      <c r="AC222" s="21"/>
+      <c r="AD222" s="21"/>
+      <c r="AE222" s="21"/>
+      <c r="AF222" s="21"/>
+      <c r="AG222" s="21"/>
+      <c r="AH222" s="21"/>
+      <c r="AI222" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AN97:AY98"/>
-    <mergeCell ref="AN114:AY115"/>
-    <mergeCell ref="AK63:AO64"/>
-    <mergeCell ref="AR63:AV64"/>
-    <mergeCell ref="AY63:BC64"/>
-    <mergeCell ref="BF63:BJ64"/>
-    <mergeCell ref="AQ78:AU78"/>
-    <mergeCell ref="BD78:BH78"/>
-    <mergeCell ref="AJ49:BQ49"/>
-    <mergeCell ref="AK50:AO50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AY50:BC50"/>
-    <mergeCell ref="BF50:BJ50"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="AQ30:AU30"/>
-    <mergeCell ref="BD30:BH30"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="AJ1:BQ1"/>
-    <mergeCell ref="AK15:AO16"/>
-    <mergeCell ref="AR15:AV16"/>
-    <mergeCell ref="AY15:BC16"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BF15:BJ16"/>
-    <mergeCell ref="A153:AA153"/>
-    <mergeCell ref="A170:R170"/>
-    <mergeCell ref="A171:AA171"/>
-    <mergeCell ref="A190:AA190"/>
-    <mergeCell ref="A91:AA91"/>
-    <mergeCell ref="A104:R104"/>
-    <mergeCell ref="A105:AA105"/>
-    <mergeCell ref="A120:AA120"/>
-    <mergeCell ref="A135:R135"/>
-    <mergeCell ref="A136:AA136"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A5:AA5"/>
     <mergeCell ref="A78:AA78"/>
@@ -41579,6 +41607,43 @@
     <mergeCell ref="A55:AA55"/>
     <mergeCell ref="A66:AA66"/>
     <mergeCell ref="A77:R77"/>
+    <mergeCell ref="A153:AA153"/>
+    <mergeCell ref="A170:R170"/>
+    <mergeCell ref="A171:AA171"/>
+    <mergeCell ref="A190:AA190"/>
+    <mergeCell ref="A91:AA91"/>
+    <mergeCell ref="A104:R104"/>
+    <mergeCell ref="A105:AA105"/>
+    <mergeCell ref="A120:AA120"/>
+    <mergeCell ref="A135:R135"/>
+    <mergeCell ref="A136:AA136"/>
+    <mergeCell ref="AQ30:AU30"/>
+    <mergeCell ref="BD30:BH30"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="AJ1:BQ1"/>
+    <mergeCell ref="AK15:AO16"/>
+    <mergeCell ref="AR15:AV16"/>
+    <mergeCell ref="AY15:BC16"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BF15:BJ16"/>
+    <mergeCell ref="BF63:BJ64"/>
+    <mergeCell ref="AQ78:AU78"/>
+    <mergeCell ref="BD78:BH78"/>
+    <mergeCell ref="AJ49:BQ49"/>
+    <mergeCell ref="AK50:AO50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AY50:BC50"/>
+    <mergeCell ref="BF50:BJ50"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="AK63:AO64"/>
+    <mergeCell ref="AR63:AV64"/>
+    <mergeCell ref="AY63:BC64"/>
+    <mergeCell ref="AK92:AV93"/>
+    <mergeCell ref="AK106:AV107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/fullResourceAllocation.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/analysis/benchmarkPolicyAnalysis/fullResourceAllocation.xlsx
@@ -398,23 +398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,8 +407,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,11 +1282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1674799568"/>
-        <c:axId val="-1674801200"/>
+        <c:axId val="1072163744"/>
+        <c:axId val="1072167008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1674799568"/>
+        <c:axId val="1072163744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674801200"/>
+        <c:crossAx val="1072167008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674801200"/>
+        <c:axId val="1072167008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -1563,7 +1563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674799568"/>
+        <c:crossAx val="1072163744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -2097,11 +2097,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674801744"/>
-        <c:axId val="-1674802832"/>
+        <c:axId val="771827248"/>
+        <c:axId val="771828336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674801744"/>
+        <c:axId val="771827248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674802832"/>
+        <c:crossAx val="771828336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2215,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674802832"/>
+        <c:axId val="771828336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2347,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674801744"/>
+        <c:crossAx val="771827248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -2839,11 +2839,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674802288"/>
-        <c:axId val="-1674800112"/>
+        <c:axId val="771833232"/>
+        <c:axId val="771830512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674802288"/>
+        <c:axId val="771833232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674800112"/>
+        <c:crossAx val="771830512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2957,7 +2957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674800112"/>
+        <c:axId val="771830512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -3089,7 +3089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674802288"/>
+        <c:crossAx val="771833232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -3581,11 +3581,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1671507024"/>
-        <c:axId val="-1671505936"/>
+        <c:axId val="771833776"/>
+        <c:axId val="771818544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1671507024"/>
+        <c:axId val="771833776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671505936"/>
+        <c:crossAx val="771818544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3699,7 +3699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1671505936"/>
+        <c:axId val="771818544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3831,7 +3831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671507024"/>
+        <c:crossAx val="771833776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -4316,11 +4316,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1671515184"/>
-        <c:axId val="-1671512464"/>
+        <c:axId val="1049741120"/>
+        <c:axId val="1049734592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1671515184"/>
+        <c:axId val="1049741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4423,7 +4423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671512464"/>
+        <c:crossAx val="1049734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4431,7 +4431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1671512464"/>
+        <c:axId val="1049734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -4562,7 +4562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671515184"/>
+        <c:crossAx val="1049741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -5047,11 +5047,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1671505392"/>
-        <c:axId val="-1671509744"/>
+        <c:axId val="1049728608"/>
+        <c:axId val="1049729152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1671505392"/>
+        <c:axId val="1049728608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671509744"/>
+        <c:crossAx val="1049729152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5162,7 +5162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1671509744"/>
+        <c:axId val="1049729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -5293,7 +5293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671505392"/>
+        <c:crossAx val="1049728608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="10"/>
@@ -6147,11 +6147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1674800656"/>
-        <c:axId val="-1674792496"/>
+        <c:axId val="1072164288"/>
+        <c:axId val="1072165376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1674800656"/>
+        <c:axId val="1072164288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,7 +6287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674792496"/>
+        <c:crossAx val="1072165376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6295,7 +6295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674792496"/>
+        <c:axId val="1072165376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -6428,7 +6428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674800656"/>
+        <c:crossAx val="1072164288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6962,11 +6962,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674794672"/>
-        <c:axId val="-1674793584"/>
+        <c:axId val="1072156672"/>
+        <c:axId val="1072167552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674794672"/>
+        <c:axId val="1072156672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7072,7 +7072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674793584"/>
+        <c:crossAx val="1072167552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7080,7 +7080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674793584"/>
+        <c:axId val="1072167552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7211,9 +7211,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674794672"/>
+        <c:crossAx val="1072156672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7702,11 +7703,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674791952"/>
-        <c:axId val="-1674799024"/>
+        <c:axId val="1072168096"/>
+        <c:axId val="1072157760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674791952"/>
+        <c:axId val="1072168096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,7 +7813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674799024"/>
+        <c:crossAx val="1072157760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7820,7 +7821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674799024"/>
+        <c:axId val="1072157760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -7951,9 +7952,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674791952"/>
+        <c:crossAx val="1072168096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8442,11 +8444,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674798480"/>
-        <c:axId val="-1674795760"/>
+        <c:axId val="1072168640"/>
+        <c:axId val="1072169184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674798480"/>
+        <c:axId val="1072168640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8552,7 +8554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674795760"/>
+        <c:crossAx val="1072169184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8560,7 +8562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674795760"/>
+        <c:axId val="1072169184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -8691,9 +8693,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674798480"/>
+        <c:crossAx val="1072168640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9182,11 +9185,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674791408"/>
-        <c:axId val="-1674805552"/>
+        <c:axId val="1072169728"/>
+        <c:axId val="1072170272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674791408"/>
+        <c:axId val="1072169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9292,7 +9295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674805552"/>
+        <c:crossAx val="1072170272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9300,7 +9303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674805552"/>
+        <c:axId val="1072170272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -9431,9 +9434,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674791408"/>
+        <c:crossAx val="1072169728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9922,11 +9926,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674790864"/>
-        <c:axId val="-1674795216"/>
+        <c:axId val="1072170816"/>
+        <c:axId val="1072156128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674790864"/>
+        <c:axId val="1072170816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10032,7 +10036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674795216"/>
+        <c:crossAx val="1072156128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10040,7 +10044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674795216"/>
+        <c:axId val="1072156128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -10171,9 +10175,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674790864"/>
+        <c:crossAx val="1072170816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10662,11 +10667,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674805008"/>
-        <c:axId val="-1674804464"/>
+        <c:axId val="771822896"/>
+        <c:axId val="771827792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674805008"/>
+        <c:axId val="771822896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,7 +10777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674804464"/>
+        <c:crossAx val="771827792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10780,7 +10785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674804464"/>
+        <c:axId val="771827792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -10912,7 +10917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674805008"/>
+        <c:crossAx val="771822896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -11404,11 +11409,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1674803920"/>
-        <c:axId val="-1674803376"/>
+        <c:axId val="771826704"/>
+        <c:axId val="771832688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1674803920"/>
+        <c:axId val="771826704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11514,7 +11519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674803376"/>
+        <c:crossAx val="771832688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11522,7 +11527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1674803376"/>
+        <c:axId val="771832688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -11653,7 +11658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1674803920"/>
+        <c:crossAx val="771826704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -20065,8 +20070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BV67" sqref="BV67"/>
+    <sheetView tabSelected="1" topLeftCell="BV142" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="EC34" sqref="EC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20084,35 +20089,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
       <c r="AD1" s="26" t="s">
         <v>44</v>
       </c>
@@ -20120,42 +20125,42 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
       <c r="AH1" s="26"/>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
     </row>
     <row r="2" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -20251,49 +20256,49 @@
       <c r="AJ2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="25"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
       <c r="BK2" s="8"/>
       <c r="BL2" s="8"/>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="27"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -20582,35 +20587,35 @@
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
       <c r="AJ5" s="11">
         <v>2</v>
       </c>
@@ -21367,35 +21372,35 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
       <c r="AJ10" s="13">
         <v>12</v>
       </c>
@@ -22001,70 +22006,70 @@
       </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="27" t="s">
+      <c r="AK15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
-      <c r="AR15" s="27" t="s">
+      <c r="AR15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
-      <c r="AY15" s="22" t="s">
+      <c r="AY15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AZ15" s="22"/>
-      <c r="BA15" s="22"/>
-      <c r="BB15" s="22"/>
-      <c r="BC15" s="22"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
       <c r="BD15" s="8"/>
       <c r="BE15" s="8"/>
-      <c r="BF15" s="27" t="s">
+      <c r="BF15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
     </row>
     <row r="16" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -22161,32 +22166,32 @@
         <v>48</v>
       </c>
       <c r="AJ16" s="12"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="12"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -22636,24 +22641,24 @@
       </c>
     </row>
     <row r="20" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
       <c r="AJ20" s="11">
         <v>6</v>
       </c>
@@ -22745,35 +22750,35 @@
       </c>
     </row>
     <row r="21" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
       <c r="AJ21" s="13">
         <v>8</v>
       </c>
@@ -23672,35 +23677,35 @@
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -23885,23 +23890,23 @@
       <c r="AP30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AQ30" s="22" t="s">
+      <c r="AQ30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
       <c r="BC30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BD30" s="22" t="s">
+      <c r="BD30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BE30" s="22"/>
-      <c r="BF30" s="22"/>
-      <c r="BG30" s="22"/>
-      <c r="BH30" s="22"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -24346,24 +24351,24 @@
       </c>
     </row>
     <row r="35" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="AP35" s="11">
         <v>6</v>
       </c>
@@ -24412,35 +24417,35 @@
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
       <c r="AP36" s="13">
         <v>8</v>
       </c>
@@ -25304,35 +25309,35 @@
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -25694,42 +25699,42 @@
         <f t="shared" si="84"/>
         <v>2.4</v>
       </c>
-      <c r="AJ49" s="24" t="s">
+      <c r="AJ49" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AK49" s="24"/>
-      <c r="AL49" s="24"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="24"/>
-      <c r="AU49" s="24"/>
-      <c r="AV49" s="24"/>
-      <c r="AW49" s="24"/>
-      <c r="AX49" s="24"/>
-      <c r="AY49" s="24"/>
-      <c r="AZ49" s="24"/>
-      <c r="BA49" s="24"/>
-      <c r="BB49" s="24"/>
-      <c r="BC49" s="24"/>
-      <c r="BD49" s="24"/>
-      <c r="BE49" s="24"/>
-      <c r="BF49" s="24"/>
-      <c r="BG49" s="24"/>
-      <c r="BH49" s="24"/>
-      <c r="BI49" s="24"/>
-      <c r="BJ49" s="24"/>
-      <c r="BK49" s="24"/>
-      <c r="BL49" s="24"/>
-      <c r="BM49" s="24"/>
-      <c r="BN49" s="24"/>
-      <c r="BO49" s="24"/>
-      <c r="BP49" s="24"/>
-      <c r="BQ49" s="24"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30"/>
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30"/>
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="30"/>
+      <c r="BB49" s="30"/>
+      <c r="BC49" s="30"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="30"/>
+      <c r="BF49" s="30"/>
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30"/>
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+      <c r="BM49" s="30"/>
+      <c r="BN49" s="30"/>
+      <c r="BO49" s="30"/>
+      <c r="BP49" s="30"/>
+      <c r="BQ49" s="30"/>
     </row>
     <row r="50" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -25823,49 +25828,49 @@
       <c r="AJ50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AK50" s="25" t="s">
+      <c r="AK50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="25"/>
-      <c r="AO50" s="25"/>
+      <c r="AL50" s="27"/>
+      <c r="AM50" s="27"/>
+      <c r="AN50" s="27"/>
+      <c r="AO50" s="27"/>
       <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
-      <c r="AR50" s="25" t="s">
+      <c r="AR50" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AS50" s="25"/>
-      <c r="AT50" s="25"/>
-      <c r="AU50" s="25"/>
-      <c r="AV50" s="25"/>
+      <c r="AS50" s="27"/>
+      <c r="AT50" s="27"/>
+      <c r="AU50" s="27"/>
+      <c r="AV50" s="27"/>
       <c r="AW50" s="8"/>
       <c r="AX50" s="8"/>
-      <c r="AY50" s="25" t="s">
+      <c r="AY50" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AZ50" s="25"/>
-      <c r="BA50" s="25"/>
-      <c r="BB50" s="25"/>
-      <c r="BC50" s="25"/>
+      <c r="AZ50" s="27"/>
+      <c r="BA50" s="27"/>
+      <c r="BB50" s="27"/>
+      <c r="BC50" s="27"/>
       <c r="BD50" s="8"/>
       <c r="BE50" s="8"/>
-      <c r="BF50" s="25" t="s">
+      <c r="BF50" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="BG50" s="25"/>
-      <c r="BH50" s="25"/>
-      <c r="BI50" s="25"/>
-      <c r="BJ50" s="25"/>
+      <c r="BG50" s="27"/>
+      <c r="BH50" s="27"/>
+      <c r="BI50" s="27"/>
+      <c r="BJ50" s="27"/>
       <c r="BK50" s="8"/>
       <c r="BL50" s="8"/>
-      <c r="BM50" s="25" t="s">
+      <c r="BM50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="BN50" s="25"/>
-      <c r="BO50" s="25"/>
-      <c r="BP50" s="25"/>
-      <c r="BQ50" s="25"/>
+      <c r="BN50" s="27"/>
+      <c r="BO50" s="27"/>
+      <c r="BP50" s="27"/>
+      <c r="BQ50" s="27"/>
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -26356,24 +26361,24 @@
       </c>
     </row>
     <row r="54" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
       <c r="AJ54" s="13">
         <v>4</v>
       </c>
@@ -26487,35 +26492,35 @@
       </c>
     </row>
     <row r="55" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
       <c r="AJ55" s="11">
         <v>6</v>
       </c>
@@ -27904,40 +27909,40 @@
         <v>90.6</v>
       </c>
       <c r="AJ63" s="8"/>
-      <c r="AK63" s="23" t="s">
+      <c r="AK63" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AL63" s="23"/>
-      <c r="AM63" s="23"/>
-      <c r="AN63" s="23"/>
-      <c r="AO63" s="23"/>
+      <c r="AL63" s="29"/>
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
       <c r="AP63" s="8"/>
       <c r="AQ63" s="8"/>
-      <c r="AR63" s="23" t="s">
+      <c r="AR63" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AS63" s="23"/>
-      <c r="AT63" s="23"/>
-      <c r="AU63" s="23"/>
-      <c r="AV63" s="23"/>
+      <c r="AS63" s="29"/>
+      <c r="AT63" s="29"/>
+      <c r="AU63" s="29"/>
+      <c r="AV63" s="29"/>
       <c r="AW63" s="8"/>
       <c r="AX63" s="8"/>
-      <c r="AY63" s="24" t="s">
+      <c r="AY63" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AZ63" s="24"/>
-      <c r="BA63" s="24"/>
-      <c r="BB63" s="24"/>
-      <c r="BC63" s="24"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30"/>
+      <c r="BC63" s="30"/>
       <c r="BD63" s="8"/>
       <c r="BE63" s="8"/>
-      <c r="BF63" s="23" t="s">
+      <c r="BF63" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BG63" s="23"/>
-      <c r="BH63" s="23"/>
-      <c r="BI63" s="23"/>
-      <c r="BJ63" s="23"/>
+      <c r="BG63" s="29"/>
+      <c r="BH63" s="29"/>
+      <c r="BI63" s="29"/>
+      <c r="BJ63" s="29"/>
     </row>
     <row r="64" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -28029,32 +28034,32 @@
         <v>91</v>
       </c>
       <c r="AJ64" s="12"/>
-      <c r="AK64" s="23"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="23"/>
-      <c r="AO64" s="23"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="29"/>
+      <c r="AM64" s="29"/>
+      <c r="AN64" s="29"/>
+      <c r="AO64" s="29"/>
       <c r="AP64" s="12"/>
       <c r="AQ64" s="12"/>
-      <c r="AR64" s="23"/>
-      <c r="AS64" s="23"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="23"/>
-      <c r="AV64" s="23"/>
+      <c r="AR64" s="29"/>
+      <c r="AS64" s="29"/>
+      <c r="AT64" s="29"/>
+      <c r="AU64" s="29"/>
+      <c r="AV64" s="29"/>
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
-      <c r="AY64" s="24"/>
-      <c r="AZ64" s="24"/>
-      <c r="BA64" s="24"/>
-      <c r="BB64" s="24"/>
-      <c r="BC64" s="24"/>
+      <c r="AY64" s="30"/>
+      <c r="AZ64" s="30"/>
+      <c r="BA64" s="30"/>
+      <c r="BB64" s="30"/>
+      <c r="BC64" s="30"/>
       <c r="BD64" s="12"/>
       <c r="BE64" s="12"/>
-      <c r="BF64" s="23"/>
-      <c r="BG64" s="23"/>
-      <c r="BH64" s="23"/>
-      <c r="BI64" s="23"/>
-      <c r="BJ64" s="23"/>
+      <c r="BF64" s="29"/>
+      <c r="BG64" s="29"/>
+      <c r="BH64" s="29"/>
+      <c r="BI64" s="29"/>
+      <c r="BJ64" s="29"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
@@ -28155,35 +28160,35 @@
       </c>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
       <c r="AJ66" s="11">
         <v>2</v>
       </c>
@@ -29709,75 +29714,75 @@
       </c>
     </row>
     <row r="77" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
     </row>
     <row r="78" spans="1:62" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="30"/>
-      <c r="Y78" s="30"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="30"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
       <c r="AP78" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AQ78" s="24" t="s">
+      <c r="AQ78" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AR78" s="24"/>
-      <c r="AS78" s="24"/>
-      <c r="AT78" s="24"/>
-      <c r="AU78" s="24"/>
+      <c r="AR78" s="30"/>
+      <c r="AS78" s="30"/>
+      <c r="AT78" s="30"/>
+      <c r="AU78" s="30"/>
       <c r="BC78" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BD78" s="24" t="s">
+      <c r="BD78" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BE78" s="24"/>
-      <c r="BF78" s="24"/>
-      <c r="BG78" s="24"/>
-      <c r="BH78" s="24"/>
+      <c r="BE78" s="30"/>
+      <c r="BF78" s="30"/>
+      <c r="BG78" s="30"/>
+      <c r="BH78" s="30"/>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -31217,35 +31222,35 @@
       </c>
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -32668,55 +32673,55 @@
       </c>
     </row>
     <row r="104" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
-      <c r="N105" s="30"/>
-      <c r="O105" s="30"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="30"/>
-      <c r="R105" s="30"/>
-      <c r="S105" s="30"/>
-      <c r="T105" s="30"/>
-      <c r="U105" s="30"/>
-      <c r="V105" s="30"/>
-      <c r="W105" s="30"/>
-      <c r="X105" s="30"/>
-      <c r="Y105" s="30"/>
-      <c r="Z105" s="30"/>
-      <c r="AA105" s="30"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="22"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
@@ -34317,35 +34322,35 @@
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="28"/>
-      <c r="O120" s="28"/>
-      <c r="P120" s="28"/>
-      <c r="Q120" s="28"/>
-      <c r="R120" s="28"/>
-      <c r="S120" s="28"/>
-      <c r="T120" s="28"/>
-      <c r="U120" s="28"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="23"/>
+      <c r="P120" s="23"/>
+      <c r="Q120" s="23"/>
+      <c r="R120" s="23"/>
+      <c r="S120" s="23"/>
+      <c r="T120" s="23"/>
+      <c r="U120" s="23"/>
+      <c r="V120" s="23"/>
+      <c r="W120" s="23"/>
+      <c r="X120" s="23"/>
+      <c r="Y120" s="23"/>
+      <c r="Z120" s="23"/>
+      <c r="AA120" s="23"/>
     </row>
     <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -35519,55 +35524,55 @@
       </c>
     </row>
     <row r="135" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="24"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
+      <c r="A136" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="30"/>
-      <c r="J136" s="30"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="30"/>
-      <c r="M136" s="30"/>
-      <c r="N136" s="30"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="30"/>
-      <c r="Q136" s="30"/>
-      <c r="R136" s="30"/>
-      <c r="S136" s="30"/>
-      <c r="T136" s="30"/>
-      <c r="U136" s="30"/>
-      <c r="V136" s="30"/>
-      <c r="W136" s="30"/>
-      <c r="X136" s="30"/>
-      <c r="Y136" s="30"/>
-      <c r="Z136" s="30"/>
-      <c r="AA136" s="30"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
+      <c r="S136" s="22"/>
+      <c r="T136" s="22"/>
+      <c r="U136" s="22"/>
+      <c r="V136" s="22"/>
+      <c r="W136" s="22"/>
+      <c r="X136" s="22"/>
+      <c r="Y136" s="22"/>
+      <c r="Z136" s="22"/>
+      <c r="AA136" s="22"/>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -36921,35 +36926,35 @@
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="28"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="28"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="28"/>
-      <c r="Q153" s="28"/>
-      <c r="R153" s="28"/>
-      <c r="S153" s="28"/>
-      <c r="T153" s="28"/>
-      <c r="U153" s="28"/>
-      <c r="V153" s="28"/>
-      <c r="W153" s="28"/>
-      <c r="X153" s="28"/>
-      <c r="Y153" s="28"/>
-      <c r="Z153" s="28"/>
-      <c r="AA153" s="28"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="23"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="23"/>
+      <c r="P153" s="23"/>
+      <c r="Q153" s="23"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="23"/>
+      <c r="T153" s="23"/>
+      <c r="U153" s="23"/>
+      <c r="V153" s="23"/>
+      <c r="W153" s="23"/>
+      <c r="X153" s="23"/>
+      <c r="Y153" s="23"/>
+      <c r="Z153" s="23"/>
+      <c r="AA153" s="23"/>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -38303,55 +38308,55 @@
       </c>
     </row>
     <row r="170" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="29"/>
-      <c r="L170" s="29"/>
-      <c r="M170" s="29"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="29"/>
-      <c r="Q170" s="29"/>
-      <c r="R170" s="29"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="24"/>
+      <c r="P170" s="24"/>
+      <c r="Q170" s="24"/>
+      <c r="R170" s="24"/>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" s="30" t="s">
+      <c r="A171" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="30"/>
-      <c r="K171" s="30"/>
-      <c r="L171" s="30"/>
-      <c r="M171" s="30"/>
-      <c r="N171" s="30"/>
-      <c r="O171" s="30"/>
-      <c r="P171" s="30"/>
-      <c r="Q171" s="30"/>
-      <c r="R171" s="30"/>
-      <c r="S171" s="30"/>
-      <c r="T171" s="30"/>
-      <c r="U171" s="30"/>
-      <c r="V171" s="30"/>
-      <c r="W171" s="30"/>
-      <c r="X171" s="30"/>
-      <c r="Y171" s="30"/>
-      <c r="Z171" s="30"/>
-      <c r="AA171" s="30"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22"/>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="22"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="22"/>
+      <c r="P171" s="22"/>
+      <c r="Q171" s="22"/>
+      <c r="R171" s="22"/>
+      <c r="S171" s="22"/>
+      <c r="T171" s="22"/>
+      <c r="U171" s="22"/>
+      <c r="V171" s="22"/>
+      <c r="W171" s="22"/>
+      <c r="X171" s="22"/>
+      <c r="Y171" s="22"/>
+      <c r="Z171" s="22"/>
+      <c r="AA171" s="22"/>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
@@ -39885,35 +39890,35 @@
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-      <c r="N190" s="28"/>
-      <c r="O190" s="28"/>
-      <c r="P190" s="28"/>
-      <c r="Q190" s="28"/>
-      <c r="R190" s="28"/>
-      <c r="S190" s="28"/>
-      <c r="T190" s="28"/>
-      <c r="U190" s="28"/>
-      <c r="V190" s="28"/>
-      <c r="W190" s="28"/>
-      <c r="X190" s="28"/>
-      <c r="Y190" s="28"/>
-      <c r="Z190" s="28"/>
-      <c r="AA190" s="28"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="23"/>
+      <c r="P190" s="23"/>
+      <c r="Q190" s="23"/>
+      <c r="R190" s="23"/>
+      <c r="S190" s="23"/>
+      <c r="T190" s="23"/>
+      <c r="U190" s="23"/>
+      <c r="V190" s="23"/>
+      <c r="W190" s="23"/>
+      <c r="X190" s="23"/>
+      <c r="Y190" s="23"/>
+      <c r="Z190" s="23"/>
+      <c r="AA190" s="23"/>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
@@ -41592,6 +41597,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="AK92:AV93"/>
+    <mergeCell ref="AK106:AV107"/>
+    <mergeCell ref="BF63:BJ64"/>
+    <mergeCell ref="AQ78:AU78"/>
+    <mergeCell ref="BD78:BH78"/>
+    <mergeCell ref="AJ49:BQ49"/>
+    <mergeCell ref="AK50:AO50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AY50:BC50"/>
+    <mergeCell ref="BF50:BJ50"/>
+    <mergeCell ref="BM50:BQ50"/>
+    <mergeCell ref="AK63:AO64"/>
+    <mergeCell ref="AR63:AV64"/>
+    <mergeCell ref="AY63:BC64"/>
+    <mergeCell ref="AQ30:AU30"/>
+    <mergeCell ref="BD30:BH30"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="AJ1:BQ1"/>
+    <mergeCell ref="AK15:AO16"/>
+    <mergeCell ref="AR15:AV16"/>
+    <mergeCell ref="AY15:BC16"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BF15:BJ16"/>
+    <mergeCell ref="A153:AA153"/>
+    <mergeCell ref="A170:R170"/>
+    <mergeCell ref="A171:AA171"/>
+    <mergeCell ref="A190:AA190"/>
+    <mergeCell ref="A91:AA91"/>
+    <mergeCell ref="A104:R104"/>
+    <mergeCell ref="A105:AA105"/>
+    <mergeCell ref="A120:AA120"/>
+    <mergeCell ref="A135:R135"/>
+    <mergeCell ref="A136:AA136"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A5:AA5"/>
     <mergeCell ref="A78:AA78"/>
@@ -41607,43 +41649,6 @@
     <mergeCell ref="A55:AA55"/>
     <mergeCell ref="A66:AA66"/>
     <mergeCell ref="A77:R77"/>
-    <mergeCell ref="A153:AA153"/>
-    <mergeCell ref="A170:R170"/>
-    <mergeCell ref="A171:AA171"/>
-    <mergeCell ref="A190:AA190"/>
-    <mergeCell ref="A91:AA91"/>
-    <mergeCell ref="A104:R104"/>
-    <mergeCell ref="A105:AA105"/>
-    <mergeCell ref="A120:AA120"/>
-    <mergeCell ref="A135:R135"/>
-    <mergeCell ref="A136:AA136"/>
-    <mergeCell ref="AQ30:AU30"/>
-    <mergeCell ref="BD30:BH30"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="AJ1:BQ1"/>
-    <mergeCell ref="AK15:AO16"/>
-    <mergeCell ref="AR15:AV16"/>
-    <mergeCell ref="AY15:BC16"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BF15:BJ16"/>
-    <mergeCell ref="BF63:BJ64"/>
-    <mergeCell ref="AQ78:AU78"/>
-    <mergeCell ref="BD78:BH78"/>
-    <mergeCell ref="AJ49:BQ49"/>
-    <mergeCell ref="AK50:AO50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AY50:BC50"/>
-    <mergeCell ref="BF50:BJ50"/>
-    <mergeCell ref="BM50:BQ50"/>
-    <mergeCell ref="AK63:AO64"/>
-    <mergeCell ref="AR63:AV64"/>
-    <mergeCell ref="AY63:BC64"/>
-    <mergeCell ref="AK92:AV93"/>
-    <mergeCell ref="AK106:AV107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
